--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="129">
   <si>
     <t>Master table of correlations</t>
   </si>
@@ -449,9 +449,6 @@
     <t xml:space="preserve">much more scatter, </t>
   </si>
   <si>
-    <t>MUST UPDATE ALL VALUES INVOLVING 20KPC ANNULUS</t>
-  </si>
-  <si>
     <t>numpy version 1.15.1</t>
   </si>
   <si>
@@ -480,7 +477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,13 +523,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -638,9 +628,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,9 +699,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,8 +753,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1059,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,244 +1064,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="D2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="52"/>
+      <c r="D3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="14"/>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="56"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="55"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Y5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Z5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="35" t="s">
+      <c r="AA5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="35" t="s">
+      <c r="AB5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="50" t="s">
+      <c r="AC5" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>-0.40699999999999997</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>0.75900000000000001</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>0.66</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="41">
         <v>0.35099999999999998</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <v>0.19500000000000001</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <v>0.214</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="41">
         <v>0.621</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="41">
         <v>0.63400000000000001</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>0.55900000000000005</v>
       </c>
-      <c r="O6" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="42">
+      <c r="O6" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="41">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="41">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="41">
         <v>0.80900000000000005</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="41">
         <v>0.68200000000000005</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="41">
         <v>0.77700000000000002</v>
       </c>
-      <c r="U6" s="42">
+      <c r="U6" s="41">
         <v>0.61</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="41">
         <v>0.67400000000000004</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <v>-0.13700000000000001</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="41">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="Y6" s="42">
+      <c r="Y6" s="41">
         <v>0.14699999999999999</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="41">
         <v>-3.9800000000000002E-2</v>
       </c>
-      <c r="AA6" s="42">
+      <c r="AA6" s="41">
         <v>0.27700000000000002</v>
       </c>
-      <c r="AB6" s="42">
+      <c r="AB6" s="41">
         <v>6.83E-2</v>
       </c>
-      <c r="AC6" s="38" t="s">
+      <c r="AC6" s="37" t="s">
         <v>67</v>
       </c>
       <c r="AD6" s="20"/>
@@ -1323,70 +1310,70 @@
       <c r="AG6" s="20"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>-0.42099999999999999</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>-0.48299999999999998</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>0.89400000000000002</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>0.90400000000000003</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="41">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="41">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="41">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="R7" s="42">
+      <c r="Q7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" s="41">
         <v>0.17599999999999999</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="41">
         <v>0.46600000000000003</v>
       </c>
-      <c r="T7" s="38" t="s">
+      <c r="T7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="41">
         <v>0.40100000000000002</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="41">
         <v>0.52400000000000002</v>
       </c>
       <c r="W7" s="33">
@@ -1395,19 +1382,19 @@
       <c r="X7" s="33">
         <v>0.40300000000000002</v>
       </c>
-      <c r="Y7" s="41">
+      <c r="Y7" s="40">
         <v>-0.59799999999999998</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="41">
         <v>-0.443</v>
       </c>
-      <c r="AA7" s="41">
+      <c r="AA7" s="40">
         <v>-0.84499999999999997</v>
       </c>
-      <c r="AB7" s="42">
+      <c r="AB7" s="41">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="AC7" s="42">
+      <c r="AC7" s="41">
         <v>0.61199999999999999</v>
       </c>
       <c r="AD7" s="20"/>
@@ -1416,91 +1403,91 @@
       <c r="AG7" s="20"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <v>-0.40699999999999997</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>-0.42099999999999999</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>-0.29399999999999998</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>-0.38600000000000001</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>-0.186</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <v>-0.20499999999999999</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="41">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="41">
         <v>-0.26300000000000001</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="41">
         <v>0.14299999999999999</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="41">
         <v>-0.33900000000000002</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="41">
         <v>-0.11</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="41">
         <v>-0.11</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="41">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="41">
         <v>-0.38900000000000001</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="41">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="U8" s="42">
+      <c r="U8" s="41">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="41">
         <v>-0.36699999999999999</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="41">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="41">
         <v>-0.216</v>
       </c>
-      <c r="Y8" s="42">
+      <c r="Y8" s="41">
         <v>0.20899999999999999</v>
       </c>
-      <c r="Z8" s="42">
+      <c r="Z8" s="41">
         <v>-4.2399999999999998E-3</v>
       </c>
-      <c r="AA8" s="42">
+      <c r="AA8" s="41">
         <v>0.19700000000000001</v>
       </c>
-      <c r="AB8" s="42">
+      <c r="AB8" s="41">
         <v>-8.09E-2</v>
       </c>
-      <c r="AC8" s="42">
+      <c r="AC8" s="41">
         <v>-0.29899999999999999</v>
       </c>
       <c r="AD8" s="20"/>
@@ -1509,91 +1496,91 @@
       <c r="AG8" s="20"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>-0.29399999999999998</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>0.36</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>0.39600000000000002</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>0.28100000000000003</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>0.378</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>0.39100000000000001</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="41">
         <v>0.63400000000000001</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="41">
         <v>0.64200000000000002</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="37">
+      <c r="N9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="36">
         <v>0.83599999999999997</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="41">
         <v>0.12</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="41">
         <v>0.12</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="41">
         <v>0.69</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="41">
         <v>0.60699999999999998</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="41">
         <v>0.73599999999999999</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="41">
         <v>0.57699999999999996</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="41">
         <v>0.62</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="41">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="41">
         <v>-0.187</v>
       </c>
-      <c r="Y9" s="42">
+      <c r="Y9" s="41">
         <v>-0.121</v>
       </c>
-      <c r="Z9" s="42">
+      <c r="Z9" s="41">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="AA9" s="42">
+      <c r="AA9" s="41">
         <v>-0.249</v>
       </c>
-      <c r="AB9" s="42">
+      <c r="AB9" s="41">
         <v>-8.7400000000000005E-2</v>
       </c>
-      <c r="AC9" s="42">
+      <c r="AC9" s="41">
         <v>0.64100000000000001</v>
       </c>
       <c r="AD9" s="20"/>
@@ -1602,70 +1589,70 @@
       <c r="AG9" s="20"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>0.31900000000000001</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>-0.38600000000000001</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="41">
         <v>0.35599999999999998</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <v>0.17899999999999999</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <v>0.19800000000000001</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="41">
         <v>0.67200000000000004</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="41">
         <v>0.68600000000000005</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="41">
         <v>0.44500000000000001</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="41">
         <v>0.67400000000000004</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="41">
         <v>-3.7600000000000001E-2</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="41">
         <v>-3.7600000000000001E-2</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="41">
         <v>0.66600000000000004</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="41">
         <v>0.57899999999999996</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="41">
         <v>0.71399999999999997</v>
       </c>
-      <c r="U10" s="42">
+      <c r="U10" s="41">
         <v>0.56299999999999994</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="41">
         <v>0.59899999999999998</v>
       </c>
       <c r="W10" s="33">
@@ -1677,16 +1664,16 @@
       <c r="Y10" s="33">
         <v>0.13100000000000001</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="Z10" s="41">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="AA10" s="42">
+      <c r="AA10" s="41">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="AB10" s="42">
+      <c r="AB10" s="41">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="AC10" s="42">
+      <c r="AC10" s="41">
         <v>0.53900000000000003</v>
       </c>
       <c r="AD10" s="20"/>
@@ -1695,70 +1682,70 @@
       <c r="AG10" s="20"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>0.75900000000000001</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>0.36</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>0.42399999999999999</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <v>0.69</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <v>0.44900000000000001</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>-0.21</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>-0.188</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="41">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="41">
         <v>0.55100000000000005</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="41">
         <v>0.42399999999999999</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <v>0.193</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="41">
         <v>-0.32</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="41">
         <v>-0.32</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="S11" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="V11" s="42">
+      <c r="V11" s="41">
         <v>0.51600000000000001</v>
       </c>
       <c r="W11" s="33">
@@ -1770,16 +1757,16 @@
       <c r="Y11" s="33">
         <v>0.39100000000000001</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="Z11" s="41">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="AA11" s="42">
+      <c r="AA11" s="41">
         <v>0.39500000000000002</v>
       </c>
-      <c r="AB11" s="42">
+      <c r="AB11" s="41">
         <v>0.318</v>
       </c>
-      <c r="AC11" s="42">
+      <c r="AC11" s="41">
         <v>0.57499999999999996</v>
       </c>
       <c r="AD11" s="20"/>
@@ -1788,70 +1775,70 @@
       <c r="AG11" s="20"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="41">
         <v>0.66</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>-0.186</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>0.39600000000000002</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>0.69</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <v>0.64100000000000001</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <v>-0.249</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="41">
         <v>0.65</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="41">
         <v>0.65300000000000002</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="41">
         <v>0.55800000000000005</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="41">
         <v>0.23100000000000001</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="41">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="41">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="41">
         <v>0.71799999999999997</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="41">
         <v>0.64600000000000002</v>
       </c>
-      <c r="U12" s="42">
+      <c r="U12" s="41">
         <v>0.58599999999999997</v>
       </c>
-      <c r="V12" s="42">
+      <c r="V12" s="41">
         <v>0.316</v>
       </c>
       <c r="W12" s="33">
@@ -1863,16 +1850,16 @@
       <c r="Y12" s="33">
         <v>0.40400000000000003</v>
       </c>
-      <c r="Z12" s="42">
+      <c r="Z12" s="41">
         <v>0.27200000000000002</v>
       </c>
-      <c r="AA12" s="42">
+      <c r="AA12" s="41">
         <v>0.7</v>
       </c>
-      <c r="AB12" s="42">
+      <c r="AB12" s="41">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AC12" s="38" t="s">
+      <c r="AC12" s="37" t="s">
         <v>65</v>
       </c>
       <c r="AD12" s="20"/>
@@ -1881,91 +1868,91 @@
       <c r="AG12" s="20"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <v>0.35099999999999998</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>-0.48299999999999998</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>0.28100000000000003</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>0.35599999999999998</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <v>-0.66400000000000003</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <v>-0.66400000000000003</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="41">
         <v>0.81799999999999995</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="41">
         <v>0.81599999999999995</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="41">
         <v>0.49199999999999999</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="41">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="P13" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q13" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" s="42">
+      <c r="P13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="41">
         <v>0.58199999999999996</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="41">
         <v>0.54100000000000004</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="41">
         <v>0.65200000000000002</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U13" s="41">
         <v>0.625</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="41">
         <v>0.22500000000000001</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="41">
         <v>-0.71299999999999997</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="41">
         <v>-0.52400000000000002</v>
       </c>
-      <c r="Y13" s="42">
+      <c r="Y13" s="41">
         <v>0.58199999999999996</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="41">
         <v>0.437</v>
       </c>
-      <c r="AA13" s="41">
+      <c r="AA13" s="40">
         <v>0.86299999999999999</v>
       </c>
-      <c r="AB13" s="42">
+      <c r="AB13" s="41">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AC13" s="42">
+      <c r="AC13" s="41">
         <v>0.58299999999999996</v>
       </c>
       <c r="AD13" s="20"/>
@@ -1974,91 +1961,91 @@
       <c r="AG13" s="20"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>0.89400000000000002</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>0.378</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>-0.21</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>-0.249</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <v>-0.66400000000000003</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="41">
         <v>-0.21</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="41">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="41">
         <v>-0.15</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="41">
         <v>0.69499999999999995</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="41">
         <v>0.92900000000000005</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="41">
         <v>0.92900000000000005</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <v>-0.123</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="41">
         <v>-4.2900000000000001E-2</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="41">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U14" s="41">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="V14" s="42">
+      <c r="V14" s="41">
         <v>0.36399999999999999</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="41">
         <v>0.54700000000000004</v>
       </c>
-      <c r="X14" s="42">
+      <c r="X14" s="41">
         <v>0.34799999999999998</v>
       </c>
-      <c r="Y14" s="42">
+      <c r="Y14" s="41">
         <v>-0.66700000000000004</v>
       </c>
-      <c r="Z14" s="42">
+      <c r="Z14" s="41">
         <v>-0.41799999999999998</v>
       </c>
-      <c r="AA14" s="42">
+      <c r="AA14" s="41">
         <v>-0.84099999999999997</v>
       </c>
-      <c r="AB14" s="42">
+      <c r="AB14" s="41">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="AC14" s="42">
+      <c r="AC14" s="41">
         <v>-4.5499999999999999E-2</v>
       </c>
       <c r="AD14" s="20"/>
@@ -2067,91 +2054,91 @@
       <c r="AG14" s="20"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="41">
         <v>0.214</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>-0.20499999999999999</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>-0.188</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="41">
         <v>-0.66400000000000003</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="41">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="41">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="41">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="41">
         <v>0.70299999999999996</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="41">
         <v>0.93500000000000005</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="41">
         <v>0.93500000000000005</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="41">
         <v>-0.113</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="41">
         <v>-3.5099999999999999E-2</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="41">
         <v>-4.3799999999999999E-2</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="41">
         <v>-0.104</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="41">
         <v>0.35899999999999999</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="41">
         <v>0.55400000000000005</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="41">
         <v>0.35299999999999998</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Y15" s="41">
         <v>-0.66500000000000004</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="Z15" s="41">
         <v>-0.442</v>
       </c>
-      <c r="AA15" s="42">
+      <c r="AA15" s="41">
         <v>-0.84599999999999997</v>
       </c>
-      <c r="AB15" s="42">
+      <c r="AB15" s="41">
         <v>-0.40600000000000003</v>
       </c>
-      <c r="AC15" s="42">
+      <c r="AC15" s="41">
         <v>-3.56E-2</v>
       </c>
       <c r="AD15" s="20"/>
@@ -2160,91 +2147,91 @@
       <c r="AG15" s="20"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>0.621</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>0.67200000000000004</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>0.54200000000000004</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>0.65</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="41">
         <v>0.81799999999999995</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>-0.21</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <v>0.997</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="41">
         <v>0.55700000000000005</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="41">
         <v>0.48199999999999998</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="41">
         <v>-0.50600000000000001</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="41">
         <v>-0.50600000000000001</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="41">
         <v>0.73599999999999999</v>
       </c>
-      <c r="S16" s="42">
+      <c r="S16" s="41">
         <v>0.65800000000000003</v>
       </c>
-      <c r="T16" s="42">
+      <c r="T16" s="41">
         <v>0.78400000000000003</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="41">
         <v>0.71199999999999997</v>
       </c>
-      <c r="V16" s="42">
+      <c r="V16" s="41">
         <v>0.55300000000000005</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <v>-0.55100000000000005</v>
       </c>
-      <c r="X16" s="42">
+      <c r="X16" s="41">
         <v>-0.42799999999999999</v>
       </c>
-      <c r="Y16" s="42">
+      <c r="Y16" s="41">
         <v>0.27300000000000002</v>
       </c>
-      <c r="Z16" s="42">
+      <c r="Z16" s="41">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AA16" s="42">
+      <c r="AA16" s="41">
         <v>0.65200000000000002</v>
       </c>
-      <c r="AB16" s="42">
+      <c r="AB16" s="41">
         <v>0.48299999999999998</v>
       </c>
-      <c r="AC16" s="42">
+      <c r="AC16" s="41">
         <v>0.58199999999999996</v>
       </c>
       <c r="AD16" s="20"/>
@@ -2253,91 +2240,91 @@
       <c r="AG16" s="20"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>0.63400000000000001</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>-0.26300000000000001</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <v>0.55100000000000005</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <v>0.65300000000000002</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="41">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="41">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <v>0.997</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="41">
         <v>0.56499999999999995</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="41">
         <v>0.48799999999999999</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="41">
         <v>-0.501</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="41">
         <v>-0.501</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="41">
         <v>0.74399999999999999</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="41">
         <v>0.66900000000000004</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="41">
         <v>0.79</v>
       </c>
-      <c r="U17" s="42">
+      <c r="U17" s="41">
         <v>0.72399999999999998</v>
       </c>
-      <c r="V17" s="42">
+      <c r="V17" s="41">
         <v>0.54900000000000004</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="41">
         <v>-0.54</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="41">
         <v>-0.42199999999999999</v>
       </c>
-      <c r="Y17" s="42">
+      <c r="Y17" s="41">
         <v>0.26400000000000001</v>
       </c>
-      <c r="Z17" s="42">
+      <c r="Z17" s="41">
         <v>0.313</v>
       </c>
-      <c r="AA17" s="42">
+      <c r="AA17" s="41">
         <v>0.64900000000000002</v>
       </c>
-      <c r="AB17" s="42">
+      <c r="AB17" s="41">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AC17" s="42">
+      <c r="AC17" s="41">
         <v>0.57799999999999996</v>
       </c>
       <c r="AD17" s="20"/>
@@ -2346,91 +2333,91 @@
       <c r="AG17" s="20"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>0.55900000000000005</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I18" s="41">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="J18" s="41">
+        <v>-0.15</v>
+      </c>
+      <c r="K18" s="41">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L18" s="41">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M18" s="41">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="42">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="G18" s="42">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H18" s="42">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="J18" s="42">
-        <v>-0.15</v>
-      </c>
-      <c r="K18" s="42">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="L18" s="42">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="M18" s="42">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="42">
+      <c r="P18" s="41">
         <v>-0.316</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="41">
         <v>-0.316</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="41">
         <v>0.67800000000000005</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="41">
         <v>0.52600000000000002</v>
       </c>
-      <c r="T18" s="42">
+      <c r="T18" s="41">
         <v>0.59799999999999998</v>
       </c>
-      <c r="U18" s="42">
+      <c r="U18" s="41">
         <v>0.56100000000000005</v>
       </c>
-      <c r="V18" s="42">
+      <c r="V18" s="41">
         <v>0.49399999999999999</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="41">
         <v>-0.443</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="41">
         <v>-0.3</v>
       </c>
-      <c r="Y18" s="42">
+      <c r="Y18" s="41">
         <v>0.378</v>
       </c>
-      <c r="Z18" s="42">
+      <c r="Z18" s="41">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AA18" s="42">
+      <c r="AA18" s="41">
         <v>0.48299999999999998</v>
       </c>
-      <c r="AB18" s="42">
+      <c r="AB18" s="41">
         <v>0.33600000000000002</v>
       </c>
-      <c r="AC18" s="42">
+      <c r="AC18" s="41">
         <v>0.50600000000000001</v>
       </c>
       <c r="AD18" s="20"/>
@@ -2439,91 +2426,91 @@
       <c r="AG18" s="20"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>-0.33900000000000002</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>0.83599999999999997</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>0.67400000000000004</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="41">
         <v>0.193</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>0.23100000000000001</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="41">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>0.69499999999999995</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <v>0.70299999999999996</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="41">
         <v>0.48199999999999998</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="41">
         <v>0.48799999999999999</v>
       </c>
-      <c r="N19" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" s="44" t="s">
+      <c r="N19" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="41">
         <v>0.441</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="41">
         <v>0.441</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="41">
         <v>0.35499999999999998</v>
       </c>
-      <c r="S19" s="42">
+      <c r="S19" s="41">
         <v>0.55200000000000005</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="41">
         <v>0.69799999999999995</v>
       </c>
-      <c r="U19" s="42">
+      <c r="U19" s="41">
         <v>0.48399999999999999</v>
       </c>
-      <c r="V19" s="42">
+      <c r="V19" s="41">
         <v>0.68600000000000005</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="41">
         <v>4.24E-2</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="41">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="Y19" s="42">
+      <c r="Y19" s="41">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="Z19" s="42">
+      <c r="Z19" s="41">
         <v>-0.27700000000000002</v>
       </c>
-      <c r="AA19" s="42">
+      <c r="AA19" s="41">
         <v>-0.252</v>
       </c>
-      <c r="AB19" s="42">
+      <c r="AB19" s="41">
         <v>-0.192</v>
       </c>
-      <c r="AC19" s="42">
+      <c r="AC19" s="41">
         <v>0.56399999999999995</v>
       </c>
       <c r="AD19" s="20"/>
@@ -2532,91 +2519,91 @@
       <c r="AG19" s="20"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="42">
+      <c r="C20" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="41">
         <v>-0.11</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>0.12</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <v>-3.7600000000000001E-2</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="41">
         <v>-0.32</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="I20" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="42">
+      <c r="I20" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="41">
         <v>0.92900000000000005</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="41">
         <v>0.93500000000000005</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="41">
         <v>-0.50600000000000001</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="41">
         <v>-0.501</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="41">
         <v>-0.316</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="41">
         <v>0.441</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="45">
         <v>1</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="41">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="S20" s="42">
+      <c r="S20" s="41">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="41">
         <v>-0.41499999999999998</v>
       </c>
-      <c r="U20" s="42">
+      <c r="U20" s="41">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="V20" s="42">
+      <c r="V20" s="41">
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="W20" s="15">
         <v>0.68799999999999994</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X20" s="44">
         <v>0.48</v>
       </c>
       <c r="Y20" s="15">
         <v>-0.70499999999999996</v>
       </c>
-      <c r="Z20" s="42">
+      <c r="Z20" s="41">
         <v>-0.45600000000000002</v>
       </c>
-      <c r="AA20" s="42">
+      <c r="AA20" s="41">
         <v>-0.874</v>
       </c>
-      <c r="AB20" s="42">
+      <c r="AB20" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AC20" s="42">
+      <c r="AC20" s="41">
         <v>-0.41899999999999998</v>
       </c>
       <c r="AD20" s="20"/>
@@ -2625,70 +2612,70 @@
       <c r="AG20" s="20"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="42">
+      <c r="C21" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="41">
         <v>-0.11</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>0.12</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <v>-3.7600000000000001E-2</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="41">
         <v>-0.32</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="I21" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="42">
+      <c r="I21" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="41">
         <v>0.92900000000000005</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <v>0.93500000000000005</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="41">
         <v>-0.50600000000000001</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="41">
         <v>-0.501</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="41">
         <v>-0.316</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="41">
         <v>0.441</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="45">
         <v>1</v>
       </c>
-      <c r="Q21" s="44" t="s">
+      <c r="Q21" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="41">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="S21" s="42">
+      <c r="S21" s="41">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="41">
         <v>-0.41499999999999998</v>
       </c>
-      <c r="U21" s="42">
+      <c r="U21" s="41">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="V21" s="42">
+      <c r="V21" s="41">
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="W21" s="15">
@@ -2700,16 +2687,16 @@
       <c r="Y21" s="15">
         <v>-0.70499999999999996</v>
       </c>
-      <c r="Z21" s="42">
+      <c r="Z21" s="41">
         <v>-0.45600000000000002</v>
       </c>
-      <c r="AA21" s="42">
+      <c r="AA21" s="41">
         <v>-0.874</v>
       </c>
-      <c r="AB21" s="42">
+      <c r="AB21" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AC21" s="42">
+      <c r="AC21" s="41">
         <v>-0.41899999999999998</v>
       </c>
       <c r="AD21" s="20"/>
@@ -2718,61 +2705,61 @@
       <c r="AG21" s="20"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <v>0.80900000000000005</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>0.17599999999999999</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>0.69</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <v>0.66600000000000004</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="41">
         <v>0.58199999999999996</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <v>-0.123</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="41">
         <v>-0.113</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="41">
         <v>0.73599999999999999</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="41">
         <v>0.74399999999999999</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="41">
         <v>0.67800000000000005</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="41">
         <v>0.52200000000000002</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="41">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="R22" s="44" t="s">
+      <c r="R22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="37" t="s">
         <v>70</v>
       </c>
       <c r="T22" s="28">
@@ -2793,16 +2780,16 @@
       <c r="Y22" s="33">
         <v>0.25</v>
       </c>
-      <c r="Z22" s="42">
+      <c r="Z22" s="41">
         <v>0.43099999999999999</v>
       </c>
-      <c r="AA22" s="42">
+      <c r="AA22" s="41">
         <v>0.59899999999999998</v>
       </c>
-      <c r="AB22" s="42">
+      <c r="AB22" s="41">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AC22" s="42">
+      <c r="AC22" s="41">
         <v>0.68100000000000005</v>
       </c>
       <c r="AD22" s="20"/>
@@ -2811,61 +2798,61 @@
       <c r="AG22" s="20"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>0.68200000000000005</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>0.46600000000000003</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>-0.38900000000000001</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <v>0.60699999999999998</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>0.57899999999999996</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>-4.2900000000000001E-2</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>-3.5099999999999999E-2</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="41">
         <v>0.65800000000000003</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="41">
         <v>0.52600000000000002</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="41">
         <v>0.54</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="41">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="41">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="R23" s="38" t="s">
+      <c r="R23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="S23" s="43" t="s">
         <v>4</v>
       </c>
       <c r="T23" s="28">
@@ -2886,16 +2873,16 @@
       <c r="Y23" s="33">
         <v>0.25600000000000001</v>
       </c>
-      <c r="Z23" s="42">
+      <c r="Z23" s="41">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="AA23" s="42">
+      <c r="AA23" s="41">
         <v>0.27200000000000002</v>
       </c>
-      <c r="AB23" s="42">
+      <c r="AB23" s="41">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="AC23" s="41">
+      <c r="AC23" s="40">
         <v>0.74</v>
       </c>
       <c r="AD23" s="20"/>
@@ -2904,55 +2891,55 @@
       <c r="AG23" s="20"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <v>0.77700000000000002</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>0.64600000000000002</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <v>0.65200000000000002</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <v>-4.3799999999999999E-2</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="41">
         <v>0.78400000000000003</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="41">
         <v>0.79</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="41">
         <v>0.59799999999999998</v>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="41">
         <v>0.67100000000000004</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="41">
         <v>-0.41499999999999998</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="41">
         <v>-0.41499999999999998</v>
       </c>
       <c r="R24" s="28">
@@ -2961,34 +2948,34 @@
       <c r="S24" s="28">
         <v>0.90300000000000002</v>
       </c>
-      <c r="T24" s="44" t="s">
+      <c r="T24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="39" t="s">
+      <c r="U24" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="V24" s="48">
+      <c r="V24" s="47">
         <v>0.53600000000000003</v>
       </c>
-      <c r="W24" s="48">
+      <c r="W24" s="47">
         <v>-0.48699999999999999</v>
       </c>
-      <c r="X24" s="48">
+      <c r="X24" s="47">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="Y24" s="40">
+      <c r="Y24" s="39">
         <v>0.22500000000000001</v>
       </c>
-      <c r="Z24" s="48">
+      <c r="Z24" s="47">
         <v>-5.7099999999999998E-2</v>
       </c>
-      <c r="AA24" s="48">
+      <c r="AA24" s="47">
         <v>0.36599999999999999</v>
       </c>
-      <c r="AB24" s="48">
+      <c r="AB24" s="47">
         <v>0.12</v>
       </c>
-      <c r="AC24" s="42">
+      <c r="AC24" s="41">
         <v>0.76800000000000002</v>
       </c>
       <c r="AD24" s="21"/>
@@ -2997,55 +2984,55 @@
       <c r="AG24" s="20"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="41">
         <v>0.61</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="41">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <v>0.57699999999999996</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="41">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>0.58599999999999997</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>0.625</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>-0.104</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="41">
         <v>0.71199999999999997</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="41">
         <v>0.72399999999999998</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="41">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="41">
         <v>0.5</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="41">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="41">
         <v>-0.39300000000000002</v>
       </c>
       <c r="R25" s="28">
@@ -3054,34 +3041,34 @@
       <c r="S25" s="28">
         <v>0.92900000000000005</v>
       </c>
-      <c r="T25" s="39" t="s">
+      <c r="T25" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="41">
         <v>0.46300000000000002</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="41">
         <v>-0.36199999999999999</v>
       </c>
-      <c r="X25" s="42">
+      <c r="X25" s="41">
         <v>-8.6199999999999999E-2</v>
       </c>
       <c r="Y25" s="33">
         <v>0.28299999999999997</v>
       </c>
-      <c r="Z25" s="42">
+      <c r="Z25" s="41">
         <v>0.20699999999999999</v>
       </c>
-      <c r="AA25" s="42">
+      <c r="AA25" s="41">
         <v>0.60299999999999998</v>
       </c>
-      <c r="AB25" s="42">
+      <c r="AB25" s="41">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AC25" s="42">
+      <c r="AC25" s="41">
         <v>0.72899999999999998</v>
       </c>
       <c r="AD25" s="20"/>
@@ -3090,55 +3077,55 @@
       <c r="AG25" s="20"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="41">
         <v>0.67400000000000004</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>-0.36699999999999999</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>0.62</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <v>0.59899999999999998</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>0.316</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>0.22500000000000001</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>0.36399999999999999</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <v>0.35899999999999999</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="41">
         <v>0.55300000000000005</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>0.54900000000000004</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <v>0.49399999999999999</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>0.73299999999999998</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="41">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="R26" s="28">
@@ -3147,13 +3134,13 @@
       <c r="S26" s="28">
         <v>0.503</v>
       </c>
-      <c r="T26" s="48">
+      <c r="T26" s="47">
         <v>0.53600000000000003</v>
       </c>
-      <c r="U26" s="42">
+      <c r="U26" s="41">
         <v>0.46300000000000002</v>
       </c>
-      <c r="V26" s="44" t="s">
+      <c r="V26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="W26" s="33">
@@ -3165,16 +3152,16 @@
       <c r="Y26" s="33">
         <v>-5.3400000000000003E-2</v>
       </c>
-      <c r="Z26" s="42">
+      <c r="Z26" s="41">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="AA26" s="42">
+      <c r="AA26" s="41">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="AB26" s="42">
+      <c r="AB26" s="41">
         <v>-1.2E-2</v>
       </c>
-      <c r="AC26" s="41">
+      <c r="AC26" s="40">
         <v>0.71099999999999997</v>
       </c>
       <c r="AD26" s="20"/>
@@ -3183,19 +3170,19 @@
       <c r="AG26" s="20"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <v>-0.13700000000000001</v>
       </c>
       <c r="C27" s="33">
         <v>0.52600000000000002</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>-0.14699999999999999</v>
       </c>
       <c r="F27" s="33">
@@ -3207,25 +3194,25 @@
       <c r="H27" s="33">
         <v>-0.49099999999999999</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>-0.71299999999999997</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>0.54700000000000004</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>0.55400000000000005</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>-0.55100000000000005</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="41">
         <v>-0.54</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="41">
         <v>-0.443</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="41">
         <v>0.13100000000000001</v>
       </c>
       <c r="P27" s="15">
@@ -3240,19 +3227,19 @@
       <c r="S27" s="33">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="T27" s="48">
+      <c r="T27" s="47">
         <v>-0.48699999999999999</v>
       </c>
-      <c r="U27" s="42">
+      <c r="U27" s="41">
         <v>-0.36199999999999999</v>
       </c>
       <c r="V27" s="33">
         <v>-7.2900000000000005E-4</v>
       </c>
-      <c r="W27" s="44" t="s">
+      <c r="W27" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="X27" s="41">
+      <c r="X27" s="40">
         <v>0.80100000000000005</v>
       </c>
       <c r="Y27" s="33">
@@ -3261,13 +3248,13 @@
       <c r="Z27" s="33">
         <v>-0.54</v>
       </c>
-      <c r="AA27" s="41">
+      <c r="AA27" s="40">
         <v>-0.89600000000000002</v>
       </c>
       <c r="AB27" s="33">
         <v>-0.54400000000000004</v>
       </c>
-      <c r="AC27" s="42">
+      <c r="AC27" s="41">
         <v>-0.30299999999999999</v>
       </c>
       <c r="AD27" s="20"/>
@@ -3276,19 +3263,19 @@
       <c r="AG27" s="20"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="41">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C28" s="33">
         <v>0.40300000000000002</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>-0.216</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>-0.187</v>
       </c>
       <c r="F28" s="33">
@@ -3300,25 +3287,25 @@
       <c r="H28" s="33">
         <v>-0.40300000000000002</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <v>-0.52400000000000002</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="41">
         <v>0.34799999999999998</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="41">
         <v>-0.42799999999999999</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="41">
         <v>-0.42199999999999999</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="41">
         <v>-0.3</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="41">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="P28" s="13">
@@ -3333,19 +3320,19 @@
       <c r="S28" s="33">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="T28" s="48">
+      <c r="T28" s="47">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="41">
         <v>-8.6199999999999999E-2</v>
       </c>
       <c r="V28" s="33">
         <v>1.09E-2</v>
       </c>
-      <c r="W28" s="41">
+      <c r="W28" s="40">
         <v>0.80100000000000005</v>
       </c>
-      <c r="X28" s="44" t="s">
+      <c r="X28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="Y28" s="33">
@@ -3360,7 +3347,7 @@
       <c r="AB28" s="33">
         <v>-0.36399999999999999</v>
       </c>
-      <c r="AC28" s="42">
+      <c r="AC28" s="41">
         <v>-5.5199999999999999E-2</v>
       </c>
       <c r="AD28" s="20"/>
@@ -3369,19 +3356,19 @@
       <c r="AG28" s="20"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="41">
         <v>0.14699999999999999</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="40">
         <v>-0.59799999999999998</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="41">
         <v>0.20899999999999999</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <v>-0.121</v>
       </c>
       <c r="F29" s="33">
@@ -3393,25 +3380,25 @@
       <c r="H29" s="33">
         <v>0.40400000000000003</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="41">
         <v>0.58199999999999996</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="41">
         <v>-0.66700000000000004</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <v>-0.66500000000000004</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="41">
         <v>0.27300000000000002</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="41">
         <v>0.26400000000000001</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="41">
         <v>0.378</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="41">
         <v>-0.372</v>
       </c>
       <c r="P29" s="15">
@@ -3426,7 +3413,7 @@
       <c r="S29" s="33">
         <v>0.25600000000000001</v>
       </c>
-      <c r="T29" s="40">
+      <c r="T29" s="39">
         <v>0.22500000000000001</v>
       </c>
       <c r="U29" s="33">
@@ -3441,19 +3428,19 @@
       <c r="X29" s="33">
         <v>-0.19800000000000001</v>
       </c>
-      <c r="Y29" s="44" t="s">
+      <c r="Y29" s="43" t="s">
         <v>4</v>
       </c>
       <c r="Z29" s="33">
         <v>0.27500000000000002</v>
       </c>
-      <c r="AA29" s="38" t="s">
+      <c r="AA29" s="37" t="s">
         <v>113</v>
       </c>
       <c r="AB29" s="33">
         <v>0.26400000000000001</v>
       </c>
-      <c r="AC29" s="42">
+      <c r="AC29" s="41">
         <v>0.28999999999999998</v>
       </c>
       <c r="AD29" s="20"/>
@@ -3462,70 +3449,70 @@
       <c r="AG29" s="20"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <v>-3.9800000000000002E-2</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>-0.443</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>-4.2399999999999998E-3</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>0.27200000000000002</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <v>0.437</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>-0.41799999999999998</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <v>-0.442</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <v>0.33300000000000002</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <v>0.313</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="41">
         <v>0.23499999999999999</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="41">
         <v>-0.33400000000000002</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="41">
         <v>-0.45600000000000002</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="41">
         <v>-0.45600000000000002</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <v>0.43099999999999999</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="T30" s="48">
+      <c r="T30" s="47">
         <v>-5.7099999999999998E-2</v>
       </c>
-      <c r="U30" s="42">
+      <c r="U30" s="41">
         <v>0.20699999999999999</v>
       </c>
-      <c r="V30" s="42">
+      <c r="V30" s="41">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="W30" s="33">
@@ -3537,16 +3524,16 @@
       <c r="Y30" s="33">
         <v>0.27500000000000002</v>
       </c>
-      <c r="Z30" s="44" t="s">
+      <c r="Z30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AA30" s="38" t="s">
+      <c r="AA30" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AB30" s="38" t="s">
+      <c r="AB30" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AC30" s="42">
+      <c r="AC30" s="41">
         <v>0.3</v>
       </c>
       <c r="AD30" s="20"/>
@@ -3555,91 +3542,91 @@
       <c r="AG30" s="20"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>0.27700000000000002</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="40">
         <v>-0.84499999999999997</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="41">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <v>-0.249</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="41">
         <v>0.39500000000000002</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <v>0.7</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="41">
         <v>0.86299999999999999</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="41">
         <v>-0.84099999999999997</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="41">
         <v>-0.84599999999999997</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="41">
         <v>0.65200000000000002</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="41">
         <v>0.64900000000000002</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="41">
         <v>0.48299999999999998</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="41">
         <v>-0.60499999999999998</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="41">
         <v>-0.874</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="41">
         <v>-0.874</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="41">
         <v>0.59899999999999998</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="41">
         <v>0.27200000000000002</v>
       </c>
-      <c r="T31" s="48">
+      <c r="T31" s="47">
         <v>0.36599999999999999</v>
       </c>
-      <c r="U31" s="42">
+      <c r="U31" s="41">
         <v>0.60299999999999998</v>
       </c>
-      <c r="V31" s="42">
+      <c r="V31" s="41">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="W31" s="41">
+      <c r="W31" s="40">
         <v>-0.89600000000000002</v>
       </c>
       <c r="X31" s="33">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="Y31" s="38" t="s">
+      <c r="Y31" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Z31" s="38" t="s">
+      <c r="Z31" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AA31" s="44" t="s">
+      <c r="AA31" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AB31" s="38" t="s">
+      <c r="AB31" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AC31" s="42">
+      <c r="AC31" s="41">
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="AD31" s="20"/>
@@ -3648,70 +3635,70 @@
       <c r="AG31" s="20"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <v>6.83E-2</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>-8.09E-2</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>-8.7400000000000005E-2</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <v>0.318</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <v>0.34699999999999998</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="41">
         <v>0.48699999999999999</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="41">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <v>-0.40600000000000003</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="41">
         <v>0.48299999999999998</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="41">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N32" s="42">
+      <c r="N32" s="41">
         <v>0.33600000000000002</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="41">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="P32" s="42">
+      <c r="P32" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="41">
         <v>0.51300000000000001</v>
       </c>
-      <c r="S32" s="42">
+      <c r="S32" s="41">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="T32" s="48">
+      <c r="T32" s="47">
         <v>0.12</v>
       </c>
-      <c r="U32" s="42">
+      <c r="U32" s="41">
         <v>0.26700000000000002</v>
       </c>
-      <c r="V32" s="42">
+      <c r="V32" s="41">
         <v>-1.2E-2</v>
       </c>
       <c r="W32" s="33">
@@ -3723,16 +3710,16 @@
       <c r="Y32" s="33">
         <v>0.26400000000000001</v>
       </c>
-      <c r="Z32" s="38" t="s">
+      <c r="Z32" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AA32" s="38" t="s">
+      <c r="AA32" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AB32" s="44" t="s">
+      <c r="AB32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="42">
+      <c r="AC32" s="41">
         <v>0.157</v>
       </c>
       <c r="AD32" s="20"/>
@@ -3741,91 +3728,91 @@
       <c r="AG32" s="20"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="41">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="41">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <v>0.53900000000000003</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <v>0.57499999999999996</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="41">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="41">
         <v>-4.5499999999999999E-2</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="41">
         <v>-3.56E-2</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="41">
         <v>0.58199999999999996</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="41">
         <v>0.57799999999999996</v>
       </c>
-      <c r="N33" s="42">
+      <c r="N33" s="41">
         <v>0.50600000000000001</v>
       </c>
-      <c r="O33" s="42">
+      <c r="O33" s="41">
         <v>0.61799999999999999</v>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="41">
         <v>-0.41899999999999998</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="41">
         <v>-0.41899999999999998</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="41">
         <v>0.68100000000000005</v>
       </c>
-      <c r="S33" s="41">
+      <c r="S33" s="40">
         <v>0.74</v>
       </c>
-      <c r="T33" s="42">
+      <c r="T33" s="41">
         <v>0.76800000000000002</v>
       </c>
-      <c r="U33" s="42">
+      <c r="U33" s="41">
         <v>0.72899999999999998</v>
       </c>
-      <c r="V33" s="41">
+      <c r="V33" s="40">
         <v>0.71099999999999997</v>
       </c>
-      <c r="W33" s="42">
+      <c r="W33" s="41">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="X33" s="42">
+      <c r="X33" s="41">
         <v>-5.5199999999999999E-2</v>
       </c>
-      <c r="Y33" s="42">
+      <c r="Y33" s="41">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z33" s="42">
+      <c r="Z33" s="41">
         <v>0.3</v>
       </c>
-      <c r="AA33" s="42">
+      <c r="AA33" s="41">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="AB33" s="42">
+      <c r="AB33" s="41">
         <v>0.157</v>
       </c>
-      <c r="AC33" s="44" t="s">
+      <c r="AC33" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AD33" s="20"/>
@@ -3872,21 +3859,21 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
       <c r="T35" s="11"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -3910,23 +3897,21 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
       <c r="T36" s="11"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -3947,24 +3932,24 @@
       <c r="A37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
@@ -3986,142 +3971,165 @@
       <c r="A38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
@@ -4182,13 +4190,12 @@
       <c r="A62" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F36:Q37"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
@@ -4216,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="K10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4234,17 +4241,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="53"/>
+      <c r="A2" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="52"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4255,94 +4262,94 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="36" t="s">
+      <c r="X5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="36" t="s">
+      <c r="Y5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="36" t="s">
+      <c r="Z5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AA5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="36" t="s">
+      <c r="AB5" s="35" t="s">
         <v>28</v>
       </c>
       <c r="AC5" s="16" t="s">
@@ -4350,7 +4357,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4395,10 +4402,10 @@
       <c r="O6" s="10">
         <v>3.7000000000000002E-28</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="48">
         <v>0.79</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="50">
         <v>0.79</v>
       </c>
       <c r="R6" s="10">
@@ -4443,7 +4450,7 @@
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="10">
@@ -4488,10 +4495,10 @@
       <c r="O7" s="10">
         <v>4.8000000000000004E-43</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="48">
         <v>1.6000000000000001E-55</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="50">
         <v>1.6000000000000001E-55</v>
       </c>
       <c r="R7" s="10">
@@ -4536,7 +4543,7 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10">
@@ -4581,10 +4588,10 @@
       <c r="O8" s="10">
         <v>6.8E-8</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P8" s="48">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="50">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="R8" s="10">
@@ -4629,7 +4636,7 @@
       <c r="AG8" s="17"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="10">
@@ -4674,10 +4681,10 @@
       <c r="O9" s="10">
         <v>3.0000000000000001E-64</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <v>6.3E-2</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="50">
         <v>6.3E-2</v>
       </c>
       <c r="R9" s="10">
@@ -4722,7 +4729,7 @@
       <c r="AG9" s="17"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10">
@@ -4767,10 +4774,10 @@
       <c r="O10" s="10">
         <v>7.8E-28</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="48">
         <v>0.6</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="50">
         <v>0.6</v>
       </c>
       <c r="R10" s="10">
@@ -4815,7 +4822,7 @@
       <c r="AG10" s="17"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="17">
@@ -4860,10 +4867,10 @@
       <c r="O11" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="48">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="50">
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="R11" s="17">
@@ -4908,7 +4915,7 @@
       <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10">
@@ -4953,10 +4960,10 @@
       <c r="O12" s="10">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="48">
         <v>3.4000000000000002E-13</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="50">
         <v>3.4000000000000002E-13</v>
       </c>
       <c r="R12" s="10">
@@ -5001,7 +5008,7 @@
       <c r="AG12" s="17"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10">
@@ -5046,10 +5053,10 @@
       <c r="O13" s="10">
         <v>0.98</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="48">
         <v>1.3E-76</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="50">
         <v>1.3E-76</v>
       </c>
       <c r="R13" s="10">
@@ -5094,7 +5101,7 @@
       <c r="AG13" s="17"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10">
@@ -5139,10 +5146,10 @@
       <c r="O14" s="10">
         <v>4.1000000000000001E-36</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="48">
         <v>2.1E-105</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="50">
         <v>2.1E-105</v>
       </c>
       <c r="R14" s="10">
@@ -5187,7 +5194,7 @@
       <c r="AG14" s="17"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="10">
@@ -5232,10 +5239,10 @@
       <c r="O15" s="10">
         <v>2.8000000000000001E-37</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="48">
         <v>3.0000000000000002E-109</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="50">
         <v>3.0000000000000002E-109</v>
       </c>
       <c r="R15" s="10">
@@ -5280,7 +5287,7 @@
       <c r="AG15" s="17"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10">
@@ -5325,10 +5332,10 @@
       <c r="O16" s="10">
         <v>2.0000000000000002E-15</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="48">
         <v>4.1999999999999998E-17</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="50">
         <v>4.1999999999999998E-17</v>
       </c>
       <c r="R16" s="10">
@@ -5373,7 +5380,7 @@
       <c r="AG16" s="17"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10">
@@ -5418,10 +5425,10 @@
       <c r="O17" s="10">
         <v>8.2000000000000001E-16</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="48">
         <v>9.9999999999999998E-17</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="50">
         <v>9.9999999999999998E-17</v>
       </c>
       <c r="R17" s="10">
@@ -5466,7 +5473,7 @@
       <c r="AG17" s="17"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10">
@@ -5511,10 +5518,10 @@
       <c r="O18" s="10">
         <v>3.4E-5</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="48">
         <v>5.8999999999999996E-7</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="50">
         <v>5.8999999999999996E-7</v>
       </c>
       <c r="R18" s="10">
@@ -5559,7 +5566,7 @@
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="10">
@@ -5604,10 +5611,10 @@
       <c r="O19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="48">
         <v>7.1999999999999996E-13</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="50">
         <v>7.1999999999999996E-13</v>
       </c>
       <c r="R19" s="10">
@@ -5652,91 +5659,91 @@
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>0.79</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>1.6000000000000001E-55</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <v>6.3E-2</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="48">
         <v>0.6</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="48">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="48">
         <v>3.4000000000000002E-13</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="48">
         <v>1.3E-76</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="48">
         <v>2.1E-105</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="48">
         <v>3.0000000000000002E-109</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="48">
         <v>4.1999999999999998E-17</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="48">
         <v>9.9999999999999998E-17</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="48">
         <v>5.8999999999999996E-7</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="48">
         <v>7.1999999999999996E-13</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="50">
         <v>0</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="48">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="S20" s="49">
+      <c r="S20" s="48">
         <v>1.9E-2</v>
       </c>
-      <c r="T20" s="49">
+      <c r="T20" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="48">
         <v>1E-3</v>
       </c>
-      <c r="V20" s="49">
+      <c r="V20" s="48">
         <v>0.42</v>
       </c>
-      <c r="W20" s="49">
+      <c r="W20" s="48">
         <v>1.9000000000000001E-16</v>
       </c>
-      <c r="X20" s="49">
+      <c r="X20" s="48">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="Y20" s="49">
+      <c r="Y20" s="48">
         <v>1.6999999999999999E-17</v>
       </c>
-      <c r="Z20" s="49">
+      <c r="Z20" s="48">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AA20" s="49">
+      <c r="AA20" s="48">
         <v>3.9999999999999997E-34</v>
       </c>
-      <c r="AB20" s="49">
+      <c r="AB20" s="48">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC20" s="49">
+      <c r="AC20" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="AD20" s="17"/>
@@ -5745,91 +5752,91 @@
       <c r="AG20" s="17"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="50">
         <v>0.79</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>1.6000000000000001E-55</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="50">
         <v>6.3E-2</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <v>0.6</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="50">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="50">
         <v>3.4000000000000002E-13</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="50">
         <v>1.3E-76</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="50">
         <v>2.1E-105</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="50">
         <v>3.0000000000000002E-109</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="50">
         <v>4.1999999999999998E-17</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <v>9.9999999999999998E-17</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <v>5.8999999999999996E-7</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="50">
         <v>7.1999999999999996E-13</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="50">
         <v>0</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="51">
+      <c r="R21" s="50">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="50">
         <v>1.9E-2</v>
       </c>
-      <c r="T21" s="51">
+      <c r="T21" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="U21" s="51">
+      <c r="U21" s="50">
         <v>1E-3</v>
       </c>
-      <c r="V21" s="51">
+      <c r="V21" s="50">
         <v>0.42</v>
       </c>
-      <c r="W21" s="51">
+      <c r="W21" s="50">
         <v>1.9000000000000001E-16</v>
       </c>
-      <c r="X21" s="51">
+      <c r="X21" s="50">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="Y21" s="51">
+      <c r="Y21" s="50">
         <v>1.6999999999999999E-17</v>
       </c>
-      <c r="Z21" s="51">
+      <c r="Z21" s="50">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AA21" s="51">
+      <c r="AA21" s="50">
         <v>3.9999999999999997E-34</v>
       </c>
-      <c r="AB21" s="51">
+      <c r="AB21" s="50">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC21" s="51">
+      <c r="AC21" s="50">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="AD21" s="17"/>
@@ -5838,7 +5845,7 @@
       <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="10">
@@ -5883,10 +5890,10 @@
       <c r="O22" s="10">
         <v>3.6E-9</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="48">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="50">
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="R22" s="9" t="s">
@@ -5931,7 +5938,7 @@
       <c r="AG22" s="17"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="10">
@@ -5976,10 +5983,10 @@
       <c r="O23" s="10">
         <v>2.3999999999999999E-6</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="48">
         <v>1.9E-2</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="50">
         <v>1.9E-2</v>
       </c>
       <c r="R23" s="10">
@@ -6024,7 +6031,7 @@
       <c r="AG23" s="17"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="10">
@@ -6069,10 +6076,10 @@
       <c r="O24" s="10">
         <v>7.1E-8</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="50">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="R24" s="10">
@@ -6117,7 +6124,7 @@
       <c r="AG24" s="17"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="10">
@@ -6162,10 +6169,10 @@
       <c r="O25" s="10">
         <v>1.7E-5</v>
       </c>
-      <c r="P25" s="49">
+      <c r="P25" s="48">
         <v>1E-3</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="50">
         <v>1E-3</v>
       </c>
       <c r="R25" s="10">
@@ -6210,7 +6217,7 @@
       <c r="AG25" s="17"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="10">
@@ -6255,10 +6262,10 @@
       <c r="O26" s="10">
         <v>1.7E-12</v>
       </c>
-      <c r="P26" s="49">
+      <c r="P26" s="48">
         <v>0.42</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="50">
         <v>0.42</v>
       </c>
       <c r="R26" s="10">
@@ -6303,7 +6310,7 @@
       <c r="AG26" s="17"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="10">
@@ -6348,10 +6355,10 @@
       <c r="O27" s="10">
         <v>0.18</v>
       </c>
-      <c r="P27" s="49">
+      <c r="P27" s="48">
         <v>1.9000000000000001E-16</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="50">
         <v>1.9000000000000001E-16</v>
       </c>
       <c r="R27" s="10">
@@ -6396,7 +6403,7 @@
       <c r="AG27" s="17"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="10">
@@ -6441,10 +6448,10 @@
       <c r="O28" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P28" s="49">
+      <c r="P28" s="48">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="50">
         <v>1.4000000000000001E-7</v>
       </c>
       <c r="R28" s="10">
@@ -6489,7 +6496,7 @@
       <c r="AG28" s="17"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="10">
@@ -6534,10 +6541,10 @@
       <c r="O29" s="10">
         <v>7.2000000000000002E-5</v>
       </c>
-      <c r="P29" s="49">
+      <c r="P29" s="48">
         <v>1.6999999999999999E-17</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="50">
         <v>1.6999999999999999E-17</v>
       </c>
       <c r="R29" s="10">
@@ -6582,7 +6589,7 @@
       <c r="AG29" s="17"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="10">
@@ -6627,10 +6634,10 @@
       <c r="O30" s="10">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="P30" s="49">
+      <c r="P30" s="48">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="50">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R30" s="10">
@@ -6675,7 +6682,7 @@
       <c r="AG30" s="17"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="10">
@@ -6720,10 +6727,10 @@
       <c r="O31" s="10">
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="48">
         <v>3.9999999999999997E-34</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="50">
         <v>3.9999999999999997E-34</v>
       </c>
       <c r="R31" s="10">
@@ -6768,7 +6775,7 @@
       <c r="AG31" s="17"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="10">
@@ -6813,10 +6820,10 @@
       <c r="O32" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P32" s="49">
+      <c r="P32" s="48">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="50">
         <v>8.1999999999999998E-7</v>
       </c>
       <c r="R32" s="10">
@@ -6906,10 +6913,10 @@
       <c r="O33" s="10">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="P33" s="49">
+      <c r="P33" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="50">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="R33" s="10">

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spearman rank" sheetId="1" r:id="rId1"/>
@@ -742,20 +742,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,66 +1064,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="14"/>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="55"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
@@ -3898,18 +3898,18 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
       <c r="T36" s="11"/>
@@ -3938,18 +3938,18 @@
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
@@ -3971,23 +3971,23 @@
       <c r="A38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -3996,23 +3996,23 @@
       <c r="A39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -4021,11 +4021,11 @@
       <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4046,90 +4046,90 @@
       <c r="A41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
@@ -4191,11 +4191,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
@@ -4206,13 +4208,11 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4223,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView topLeftCell="K10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4241,17 +4241,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="55"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4262,10 +4262,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="55"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Spearman rank" sheetId="1" r:id="rId1"/>
@@ -748,14 +748,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,23 +1075,23 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="5"/>
       <c r="P2" s="52" t="s">
         <v>109</v>
@@ -1101,29 +1101,29 @@
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="14"/>
       <c r="P3" s="52" t="s">
         <v>85</v>
       </c>
       <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
+      <c r="R3" s="56"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
@@ -3932,11 +3932,11 @@
       <c r="A37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="20"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -4191,13 +4191,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
@@ -4208,11 +4206,13 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4223,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,10 +4248,10 @@
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="53"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4262,10 +4262,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="53"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spearman rank" sheetId="1" r:id="rId1"/>
@@ -748,14 +748,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,23 +1075,23 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="5"/>
       <c r="P2" s="52" t="s">
         <v>109</v>
@@ -1101,29 +1101,29 @@
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="14"/>
       <c r="P3" s="52" t="s">
         <v>85</v>
       </c>
       <c r="Q3" s="52"/>
-      <c r="R3" s="56"/>
+      <c r="R3" s="53"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
@@ -3932,11 +3932,11 @@
       <c r="A37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="20"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -4191,11 +4191,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
@@ -4206,13 +4208,11 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4223,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,10 +4248,10 @@
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="55"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4262,10 +4262,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="55"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Spearman rank" sheetId="1" r:id="rId1"/>
@@ -267,13 +267,7 @@
     <t>O'Sullivan et al. 2011</t>
   </si>
   <si>
-    <t>0.457b</t>
-  </si>
-  <si>
     <t>Hlavacek-Larrando et al. 2012</t>
-  </si>
-  <si>
-    <t>0.696c</t>
   </si>
   <si>
     <t>Hoffer et al. 2012</t>
@@ -468,6 +462,12 @@
   </si>
   <si>
     <t>0.803gik</t>
+  </si>
+  <si>
+    <t>0.479b</t>
+  </si>
+  <si>
+    <t>0.703c</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,14 +748,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -1046,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1075,55 +1082,55 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="A2" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="5"/>
       <c r="P2" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="14"/>
       <c r="P3" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
+      <c r="R3" s="56"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
@@ -1171,10 +1178,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="34" t="s">
         <v>54</v>
@@ -1224,16 +1231,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="41">
         <v>-0.40699999999999997</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="41">
         <v>0.75900000000000001</v>
@@ -1260,7 +1267,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P6" s="41">
         <v>-1.7500000000000002E-2</v>
@@ -1301,10 +1308,9 @@
       <c r="AB6" s="41">
         <v>6.83E-2</v>
       </c>
-      <c r="AC6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD6" s="20"/>
+      <c r="AC6" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="20"/>
@@ -1314,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>4</v>
@@ -1323,13 +1329,13 @@
         <v>-0.42099999999999999</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="41">
         <v>0.31900000000000001</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7" s="41">
         <v>-0.11899999999999999</v>
@@ -1353,13 +1359,13 @@
         <v>-0.13200000000000001</v>
       </c>
       <c r="O7" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R7" s="41">
         <v>0.17599999999999999</v>
@@ -1368,7 +1374,7 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U7" s="41">
         <v>0.40100000000000002</v>
@@ -1394,10 +1400,9 @@
       <c r="AB7" s="41">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="AC7" s="41">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="AD7" s="20"/>
+      <c r="AC7" s="20">
+        <v>0.61399999999999999</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="20"/>
@@ -1487,10 +1492,9 @@
       <c r="AB8" s="41">
         <v>-8.09E-2</v>
       </c>
-      <c r="AC8" s="41">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="AD8" s="20"/>
+      <c r="AC8" s="20">
+        <v>-0.34399999999999997</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="20"/>
@@ -1500,10 +1504,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="41">
         <v>-0.29399999999999998</v>
@@ -1512,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="41">
         <v>0.36</v>
@@ -1536,7 +1540,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O9" s="36">
         <v>0.83599999999999997</v>
@@ -1580,10 +1584,9 @@
       <c r="AB9" s="41">
         <v>-8.7400000000000005E-2</v>
       </c>
-      <c r="AC9" s="41">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="AD9" s="20"/>
+      <c r="AC9" s="20">
+        <v>0.63100000000000001</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="20"/>
@@ -1593,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="41">
         <v>0.31900000000000001</v>
@@ -1602,7 +1605,7 @@
         <v>-0.38600000000000001</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>4</v>
@@ -1673,10 +1676,9 @@
       <c r="AB10" s="41">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="AC10" s="41">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="AD10" s="20"/>
+      <c r="AC10" s="20">
+        <v>0.54</v>
+      </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="20"/>
@@ -1689,7 +1691,7 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="41">
         <v>-0.23499999999999999</v>
@@ -1734,16 +1736,16 @@
         <v>-0.32</v>
       </c>
       <c r="R11" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>115</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="U11" s="37" t="s">
-        <v>117</v>
       </c>
       <c r="V11" s="41">
         <v>0.51600000000000001</v>
@@ -1766,10 +1768,9 @@
       <c r="AB11" s="41">
         <v>0.318</v>
       </c>
-      <c r="AC11" s="41">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="AD11" s="20"/>
+      <c r="AC11" s="20">
+        <v>0.60099999999999998</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="20"/>
@@ -1830,7 +1831,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T12" s="41">
         <v>0.64600000000000002</v>
@@ -1859,10 +1860,9 @@
       <c r="AB12" s="41">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AC12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD12" s="20"/>
+      <c r="AC12" s="57" t="s">
+        <v>127</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="20"/>
@@ -1914,10 +1914,10 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P13" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R13" s="41">
         <v>0.58199999999999996</v>
@@ -1952,10 +1952,9 @@
       <c r="AB13" s="41">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AC13" s="41">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="AD13" s="20"/>
+      <c r="AC13" s="20">
+        <v>0.59199999999999997</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="20"/>
@@ -2045,10 +2044,9 @@
       <c r="AB14" s="41">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="AC14" s="41">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="AD14" s="20"/>
+      <c r="AC14" s="20">
+        <v>-7.1900000000000006E-2</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="20"/>
@@ -2138,10 +2136,9 @@
       <c r="AB15" s="41">
         <v>-0.40600000000000003</v>
       </c>
-      <c r="AC15" s="41">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="AD15" s="20"/>
+      <c r="AC15" s="20">
+        <v>-6.2700000000000006E-2</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="20"/>
@@ -2231,10 +2228,9 @@
       <c r="AB16" s="41">
         <v>0.48299999999999998</v>
       </c>
-      <c r="AC16" s="41">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="AD16" s="20"/>
+      <c r="AC16" s="20">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="20"/>
@@ -2324,10 +2320,9 @@
       <c r="AB17" s="41">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AC17" s="41">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="AD17" s="20"/>
+      <c r="AC17" s="20">
+        <v>0.60299999999999998</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="20"/>
@@ -2346,7 +2341,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="41">
         <v>0.44500000000000001</v>
@@ -2376,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="O18" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P18" s="41">
         <v>-0.316</v>
@@ -2417,23 +2412,22 @@
       <c r="AB18" s="41">
         <v>0.33600000000000002</v>
       </c>
-      <c r="AC18" s="41">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="AD18" s="20"/>
+      <c r="AC18" s="20">
+        <v>0.52700000000000002</v>
+      </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="20"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="41">
         <v>-0.33900000000000002</v>
@@ -2466,7 +2460,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O19" s="43" t="s">
         <v>4</v>
@@ -2510,23 +2504,22 @@
       <c r="AB19" s="41">
         <v>-0.192</v>
       </c>
-      <c r="AC19" s="41">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="AD19" s="20"/>
+      <c r="AC19" s="20">
+        <v>0.61099999999999999</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="20"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="41">
         <v>-1.7500000000000002E-2</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="41">
         <v>-0.11</v>
@@ -2544,7 +2537,7 @@
         <v>-0.44800000000000001</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J20" s="41">
         <v>0.92900000000000005</v>
@@ -2603,10 +2596,9 @@
       <c r="AB20" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AC20" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="AD20" s="20"/>
+      <c r="AC20" s="20">
+        <v>-0.438</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="20"/>
@@ -2619,7 +2611,7 @@
         <v>-1.7500000000000002E-2</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="41">
         <v>-0.11</v>
@@ -2637,7 +2629,7 @@
         <v>-0.44800000000000001</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J21" s="41">
         <v>0.92900000000000005</v>
@@ -2696,10 +2688,9 @@
       <c r="AB21" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AC21" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="AD21" s="20"/>
+      <c r="AC21" s="20">
+        <v>-0.438</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="20"/>
@@ -2724,7 +2715,7 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="41">
         <v>0.71799999999999997</v>
@@ -2760,7 +2751,7 @@
         <v>4</v>
       </c>
       <c r="S22" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T22" s="28">
         <v>0.90300000000000002</v>
@@ -2789,10 +2780,9 @@
       <c r="AB22" s="41">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AC22" s="41">
+      <c r="AC22" s="20">
         <v>0.68100000000000005</v>
       </c>
-      <c r="AD22" s="20"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="20"/>
@@ -2817,10 +2807,10 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" s="41">
         <v>0.54100000000000004</v>
@@ -2850,7 +2840,7 @@
         <v>-0.28499999999999998</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S23" s="43" t="s">
         <v>4</v>
@@ -2882,10 +2872,9 @@
       <c r="AB23" s="41">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="AC23" s="40">
+      <c r="AC23" s="58">
         <v>0.74</v>
       </c>
-      <c r="AD23" s="20"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="20"/>
@@ -2898,7 +2887,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="41">
         <v>-0.39300000000000002</v>
@@ -2910,7 +2899,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" s="41">
         <v>0.64600000000000002</v>
@@ -2952,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V24" s="47">
         <v>0.53600000000000003</v>
@@ -2975,10 +2964,9 @@
       <c r="AB24" s="47">
         <v>0.12</v>
       </c>
-      <c r="AC24" s="41">
+      <c r="AC24" s="21">
         <v>0.76800000000000002</v>
       </c>
-      <c r="AD24" s="21"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="20"/>
@@ -3003,7 +2991,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H25" s="41">
         <v>0.58599999999999997</v>
@@ -3042,7 +3030,7 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U25" s="43" t="s">
         <v>4</v>
@@ -3068,10 +3056,9 @@
       <c r="AB25" s="41">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AC25" s="41">
+      <c r="AC25" s="20">
         <v>0.72899999999999998</v>
       </c>
-      <c r="AD25" s="20"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="20"/>
@@ -3161,10 +3148,9 @@
       <c r="AB26" s="41">
         <v>-1.2E-2</v>
       </c>
-      <c r="AC26" s="40">
+      <c r="AC26" s="58">
         <v>0.71099999999999997</v>
       </c>
-      <c r="AD26" s="20"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="20"/>
@@ -3254,10 +3240,9 @@
       <c r="AB27" s="33">
         <v>-0.54400000000000004</v>
       </c>
-      <c r="AC27" s="41">
+      <c r="AC27" s="20">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="AD27" s="20"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="20"/>
@@ -3347,10 +3332,9 @@
       <c r="AB28" s="33">
         <v>-0.36399999999999999</v>
       </c>
-      <c r="AC28" s="41">
+      <c r="AC28" s="20">
         <v>-5.5199999999999999E-2</v>
       </c>
-      <c r="AD28" s="20"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="20"/>
@@ -3435,15 +3419,14 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AA29" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AB29" s="33">
         <v>0.26400000000000001</v>
       </c>
-      <c r="AC29" s="41">
+      <c r="AC29" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD29" s="20"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="20"/>
@@ -3528,15 +3511,14 @@
         <v>4</v>
       </c>
       <c r="AA30" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AB30" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC30" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="AD30" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="AC30" s="20">
+        <v>0.24</v>
+      </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="20"/>
@@ -3615,21 +3597,20 @@
         <v>-0.57699999999999996</v>
       </c>
       <c r="Y31" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z31" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA31" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AB31" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC31" s="41">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="AD31" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="AC31" s="20">
+        <v>0.154</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="20"/>
@@ -3711,18 +3692,17 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="Z32" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA32" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="41">
-        <v>0.157</v>
-      </c>
-      <c r="AD32" s="20"/>
+      <c r="AC32" s="20">
+        <v>0.193</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="20"/>
@@ -3731,91 +3711,90 @@
       <c r="A33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="41">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="D33" s="41">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F33" s="41">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="G33" s="41">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="41">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="J33" s="41">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="K33" s="41">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="L33" s="41">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="M33" s="41">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="N33" s="41">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O33" s="41">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="P33" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="Q33" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="R33" s="41">
+      <c r="B33" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D33" s="20">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="J33" s="20">
+        <v>-7.1900000000000006E-2</v>
+      </c>
+      <c r="K33" s="20">
+        <v>-6.2700000000000006E-2</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="N33" s="20">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="O33" s="20">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="P33" s="20">
+        <v>-0.438</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>-0.438</v>
+      </c>
+      <c r="R33" s="20">
         <v>0.68100000000000005</v>
       </c>
-      <c r="S33" s="40">
+      <c r="S33" s="58">
         <v>0.74</v>
       </c>
-      <c r="T33" s="41">
+      <c r="T33" s="21">
         <v>0.76800000000000002</v>
       </c>
-      <c r="U33" s="41">
+      <c r="U33" s="20">
         <v>0.72899999999999998</v>
       </c>
-      <c r="V33" s="40">
+      <c r="V33" s="58">
         <v>0.71099999999999997</v>
       </c>
-      <c r="W33" s="41">
+      <c r="W33" s="20">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="X33" s="41">
+      <c r="X33" s="20">
         <v>-5.5199999999999999E-2</v>
       </c>
-      <c r="Y33" s="41">
+      <c r="Y33" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z33" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="AA33" s="41">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="AB33" s="41">
-        <v>0.157</v>
-      </c>
-      <c r="AC33" s="43" t="s">
+      <c r="Z33" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="AA33" s="20">
+        <v>0.154</v>
+      </c>
+      <c r="AB33" s="20">
+        <v>0.193</v>
+      </c>
+      <c r="AC33" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AD33" s="20"/>
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
@@ -3932,11 +3911,11 @@
       <c r="A37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="20"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -3997,7 +3976,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -4022,7 +4001,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -4047,77 +4026,77 @@
         <v>63</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
@@ -4125,7 +4104,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
@@ -4133,10 +4112,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -4191,13 +4170,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
@@ -4208,11 +4185,13 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4223,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,10 +4227,10 @@
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="53"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4262,10 +4241,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="53"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -4311,10 +4290,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="35" t="s">
         <v>54</v>
@@ -4441,10 +4420,9 @@
       <c r="AB6" s="10">
         <v>0.49</v>
       </c>
-      <c r="AC6" s="10">
-        <v>1.6E-7</v>
-      </c>
-      <c r="AD6" s="17"/>
+      <c r="AC6" s="59">
+        <v>7.3000000000000005E-8</v>
+      </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="17"/>
@@ -4534,10 +4512,9 @@
       <c r="AB7" s="10">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="AC7" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD7" s="17"/>
+      <c r="AC7" s="59">
+        <v>7.3000000000000004E-6</v>
+      </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="17"/>
@@ -4627,10 +4604,9 @@
       <c r="AB8" s="10">
         <v>0.41</v>
       </c>
-      <c r="AC8" s="17">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="AD8" s="17"/>
+      <c r="AC8" s="59">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="17"/>
@@ -4720,10 +4696,9 @@
       <c r="AB9" s="10">
         <v>0.38</v>
       </c>
-      <c r="AC9" s="10">
-        <v>2.7999999999999999E-6</v>
-      </c>
-      <c r="AD9" s="17"/>
+      <c r="AC9" s="59">
+        <v>3.4000000000000001E-6</v>
+      </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="17"/>
@@ -4813,10 +4788,9 @@
       <c r="AB10" s="10">
         <v>0.73</v>
       </c>
-      <c r="AC10" s="10">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="AD10" s="17"/>
+      <c r="AC10" s="59">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="17"/>
@@ -4906,10 +4880,9 @@
       <c r="AB11" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="AC11" s="17">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="AD11" s="17"/>
+      <c r="AC11" s="59">
+        <v>7.2999999999999996E-4</v>
+      </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="17"/>
@@ -4999,10 +4972,9 @@
       <c r="AB12" s="10">
         <v>2.9E-4</v>
       </c>
-      <c r="AC12" s="10">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AD12" s="17"/>
+      <c r="AC12" s="59">
+        <v>8.8000000000000003E-4</v>
+      </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="17"/>
@@ -5092,10 +5064,9 @@
       <c r="AB13" s="10">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="AC13" s="10">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="AD13" s="17"/>
+      <c r="AC13" s="59">
+        <v>1.8E-5</v>
+      </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="17"/>
@@ -5185,10 +5156,9 @@
       <c r="AB14" s="10">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="AC14" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="AD14" s="17"/>
+      <c r="AC14" s="59">
+        <v>0.64</v>
+      </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="17"/>
@@ -5278,10 +5248,9 @@
       <c r="AB15" s="10">
         <v>1.8E-5</v>
       </c>
-      <c r="AC15" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="AD15" s="17"/>
+      <c r="AC15" s="59">
+        <v>0.68</v>
+      </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="17"/>
@@ -5371,10 +5340,9 @@
       <c r="AB16" s="10">
         <v>1.8E-7</v>
       </c>
-      <c r="AC16" s="10">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="AD16" s="17"/>
+      <c r="AC16" s="59">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="17"/>
@@ -5464,10 +5432,9 @@
       <c r="AB17" s="10">
         <v>2.6E-7</v>
       </c>
-      <c r="AC17" s="10">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="AD17" s="17"/>
+      <c r="AC17" s="59">
+        <v>1.2E-5</v>
+      </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="17"/>
@@ -5557,17 +5524,16 @@
       <c r="AB18" s="10">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="AC18" s="10">
-        <v>4.6000000000000001E-4</v>
-      </c>
-      <c r="AD18" s="17"/>
+      <c r="AC18" s="59">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10">
         <v>3.7000000000000002E-28</v>
@@ -5650,17 +5616,16 @@
       <c r="AB19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC19" s="10">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AD19" s="17"/>
+      <c r="AC19" s="59">
+        <v>8.3000000000000002E-6</v>
+      </c>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="48">
         <v>0.79</v>
@@ -5743,10 +5708,9 @@
       <c r="AB20" s="48">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC20" s="48">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="AD20" s="17"/>
+      <c r="AC20" s="59">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="17"/>
@@ -5836,10 +5800,9 @@
       <c r="AB21" s="50">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC21" s="50">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="AD21" s="17"/>
+      <c r="AC21" s="59">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="17"/>
@@ -5929,10 +5892,9 @@
       <c r="AB22" s="10">
         <v>1.4E-3</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="59">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="AD22" s="17"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="17"/>
@@ -6022,10 +5984,9 @@
       <c r="AB23" s="10">
         <v>0.66</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="59">
         <v>6.9E-6</v>
       </c>
-      <c r="AD23" s="17"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="17"/>
@@ -6115,10 +6076,9 @@
       <c r="AB24" s="12">
         <v>0.62</v>
       </c>
-      <c r="AC24" s="10">
+      <c r="AC24" s="59">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="AD24" s="18"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="17"/>
@@ -6208,10 +6168,9 @@
       <c r="AB25" s="10">
         <v>0.15</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="59">
         <v>1.1E-5</v>
       </c>
-      <c r="AD25" s="17"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="17"/>
@@ -6301,10 +6260,9 @@
       <c r="AB26" s="10">
         <v>0.95</v>
       </c>
-      <c r="AC26" s="10">
+      <c r="AC26" s="59">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="AD26" s="17"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="17"/>
@@ -6394,10 +6352,9 @@
       <c r="AB27" s="10">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="AC27" s="10">
+      <c r="AC27" s="59">
         <v>0.11</v>
       </c>
-      <c r="AD27" s="17"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="17"/>
@@ -6487,10 +6444,9 @@
       <c r="AB28" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AC28" s="59">
         <v>0.78</v>
       </c>
-      <c r="AD28" s="17"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="17"/>
@@ -6580,10 +6536,9 @@
       <c r="AB29" s="10">
         <v>0.1</v>
       </c>
-      <c r="AC29" s="10">
+      <c r="AC29" s="59">
         <v>0.13</v>
       </c>
-      <c r="AD29" s="17"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="17"/>
@@ -6673,10 +6628,9 @@
       <c r="AB30" s="10">
         <v>1.6E-18</v>
       </c>
-      <c r="AC30" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="AD30" s="17"/>
+      <c r="AC30" s="59">
+        <v>0.35</v>
+      </c>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="17"/>
@@ -6766,10 +6720,9 @@
       <c r="AB31" s="10">
         <v>2.1E-7</v>
       </c>
-      <c r="AC31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD31" s="17"/>
+      <c r="AC31" s="59">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="17"/>
@@ -6859,10 +6812,9 @@
       <c r="AB32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AD32" s="17"/>
+      <c r="AC32" s="59">
+        <v>0.46</v>
+      </c>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="17"/>
@@ -6871,91 +6823,90 @@
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="10">
-        <v>1.6E-7</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="59">
+        <v>7.3000000000000005E-8</v>
+      </c>
+      <c r="C33" s="59">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="D33" s="59">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E33" s="59">
+        <v>3.4000000000000001E-6</v>
+      </c>
+      <c r="F33" s="59">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G33" s="59">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="H33" s="59">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="I33" s="59">
+        <v>1.8E-5</v>
+      </c>
+      <c r="J33" s="59">
+        <v>0.64</v>
+      </c>
+      <c r="K33" s="59">
+        <v>0.68</v>
+      </c>
+      <c r="L33" s="59">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D33" s="17">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2.7999999999999999E-6</v>
-      </c>
-      <c r="F33" s="10">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I33" s="10">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="L33" s="10">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="M33" s="10">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="N33" s="10">
-        <v>4.6000000000000001E-4</v>
-      </c>
-      <c r="O33" s="10">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="P33" s="48">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="Q33" s="50">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="R33" s="10">
+      <c r="M33" s="59">
+        <v>1.2E-5</v>
+      </c>
+      <c r="N33" s="59">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O33" s="59">
+        <v>8.3000000000000002E-6</v>
+      </c>
+      <c r="P33" s="59">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="Q33" s="59">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="R33" s="59">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="59">
         <v>6.9E-6</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="59">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="59">
         <v>1.1E-5</v>
       </c>
-      <c r="V33" s="10">
+      <c r="V33" s="59">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="W33" s="10">
+      <c r="W33" s="59">
         <v>0.11</v>
       </c>
-      <c r="X33" s="10">
+      <c r="X33" s="59">
         <v>0.78</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="59">
         <v>0.13</v>
       </c>
-      <c r="Z33" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="AA33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AB33" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AC33" s="8" t="s">
+      <c r="Z33" s="59">
+        <v>0.35</v>
+      </c>
+      <c r="AA33" s="59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB33" s="59">
+        <v>0.46</v>
+      </c>
+      <c r="AC33" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
@@ -7176,10 +7127,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>54</v>
@@ -7397,7 +7348,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O19" s="24"/>
       <c r="AD19" s="20"/>
@@ -7407,7 +7358,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="24"/>
       <c r="AD20" s="20"/>
@@ -8022,10 +7973,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>54</v>
@@ -8642,7 +8593,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -8687,7 +8638,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -9753,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9761,7 +9712,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9769,7 +9720,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9777,7 +9728,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9785,7 +9736,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9793,7 +9744,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9801,7 +9752,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9809,7 +9760,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9817,7 +9768,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9825,23 +9776,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9849,7 +9800,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,24 +745,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -1071,66 +1070,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="57"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="14"/>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="56"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
@@ -1308,7 +1307,7 @@
       <c r="AB6" s="41">
         <v>6.83E-2</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AC6" s="52" t="s">
         <v>128</v>
       </c>
       <c r="AE6" s="1"/>
@@ -1860,7 +1859,7 @@
       <c r="AB12" s="41">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AC12" s="57" t="s">
+      <c r="AC12" s="52" t="s">
         <v>127</v>
       </c>
       <c r="AE12" s="1"/>
@@ -2872,7 +2871,7 @@
       <c r="AB23" s="41">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="AC23" s="58">
+      <c r="AC23" s="53">
         <v>0.74</v>
       </c>
       <c r="AE23" s="1"/>
@@ -3148,7 +3147,7 @@
       <c r="AB26" s="41">
         <v>-1.2E-2</v>
       </c>
-      <c r="AC26" s="58">
+      <c r="AC26" s="53">
         <v>0.71099999999999997</v>
       </c>
       <c r="AE26" s="1"/>
@@ -3711,7 +3710,7 @@
       <c r="A33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C33" s="20">
@@ -3729,7 +3728,7 @@
       <c r="G33" s="20">
         <v>0.60099999999999998</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="52" t="s">
         <v>127</v>
       </c>
       <c r="I33" s="20">
@@ -3762,7 +3761,7 @@
       <c r="R33" s="20">
         <v>0.68100000000000005</v>
       </c>
-      <c r="S33" s="58">
+      <c r="S33" s="53">
         <v>0.74</v>
       </c>
       <c r="T33" s="21">
@@ -3771,7 +3770,7 @@
       <c r="U33" s="20">
         <v>0.72899999999999998</v>
       </c>
-      <c r="V33" s="58">
+      <c r="V33" s="53">
         <v>0.71099999999999997</v>
       </c>
       <c r="W33" s="20">
@@ -3911,11 +3910,11 @@
       <c r="A37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="20"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -3950,11 +3949,11 @@
       <c r="A38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="16"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -3975,11 +3974,11 @@
       <c r="A39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="16"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -4000,11 +3999,11 @@
       <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4025,90 +4024,90 @@
       <c r="A41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
@@ -4170,11 +4169,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
@@ -4185,13 +4186,11 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4220,17 +4219,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="57"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4241,10 +4240,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -4420,7 +4419,7 @@
       <c r="AB6" s="10">
         <v>0.49</v>
       </c>
-      <c r="AC6" s="59">
+      <c r="AC6" s="50">
         <v>7.3000000000000005E-8</v>
       </c>
       <c r="AE6" s="10"/>
@@ -4512,7 +4511,7 @@
       <c r="AB7" s="10">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="AC7" s="59">
+      <c r="AC7" s="50">
         <v>7.3000000000000004E-6</v>
       </c>
       <c r="AE7" s="10"/>
@@ -4604,7 +4603,7 @@
       <c r="AB8" s="10">
         <v>0.41</v>
       </c>
-      <c r="AC8" s="59">
+      <c r="AC8" s="50">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AE8" s="10"/>
@@ -4696,7 +4695,7 @@
       <c r="AB9" s="10">
         <v>0.38</v>
       </c>
-      <c r="AC9" s="59">
+      <c r="AC9" s="50">
         <v>3.4000000000000001E-6</v>
       </c>
       <c r="AE9" s="10"/>
@@ -4788,7 +4787,7 @@
       <c r="AB10" s="10">
         <v>0.73</v>
       </c>
-      <c r="AC10" s="59">
+      <c r="AC10" s="50">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="AE10" s="10"/>
@@ -4880,7 +4879,7 @@
       <c r="AB11" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AC11" s="50">
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="AE11" s="10"/>
@@ -4972,7 +4971,7 @@
       <c r="AB12" s="10">
         <v>2.9E-4</v>
       </c>
-      <c r="AC12" s="59">
+      <c r="AC12" s="50">
         <v>8.8000000000000003E-4</v>
       </c>
       <c r="AE12" s="10"/>
@@ -5064,7 +5063,7 @@
       <c r="AB13" s="10">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="AC13" s="59">
+      <c r="AC13" s="50">
         <v>1.8E-5</v>
       </c>
       <c r="AE13" s="10"/>
@@ -5156,7 +5155,7 @@
       <c r="AB14" s="10">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="AC14" s="59">
+      <c r="AC14" s="50">
         <v>0.64</v>
       </c>
       <c r="AE14" s="10"/>
@@ -5248,7 +5247,7 @@
       <c r="AB15" s="10">
         <v>1.8E-5</v>
       </c>
-      <c r="AC15" s="59">
+      <c r="AC15" s="50">
         <v>0.68</v>
       </c>
       <c r="AE15" s="10"/>
@@ -5340,7 +5339,7 @@
       <c r="AB16" s="10">
         <v>1.8E-7</v>
       </c>
-      <c r="AC16" s="59">
+      <c r="AC16" s="50">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AE16" s="10"/>
@@ -5432,7 +5431,7 @@
       <c r="AB17" s="10">
         <v>2.6E-7</v>
       </c>
-      <c r="AC17" s="59">
+      <c r="AC17" s="50">
         <v>1.2E-5</v>
       </c>
       <c r="AE17" s="10"/>
@@ -5524,7 +5523,7 @@
       <c r="AB18" s="10">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="AC18" s="59">
+      <c r="AC18" s="50">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="AE18" s="10"/>
@@ -5616,7 +5615,7 @@
       <c r="AB19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC19" s="59">
+      <c r="AC19" s="50">
         <v>8.3000000000000002E-6</v>
       </c>
       <c r="AE19" s="10"/>
@@ -5708,7 +5707,7 @@
       <c r="AB20" s="48">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC20" s="59">
+      <c r="AC20" s="50">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="AE20" s="10"/>
@@ -5800,7 +5799,7 @@
       <c r="AB21" s="50">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC21" s="59">
+      <c r="AC21" s="50">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="AE21" s="10"/>
@@ -5892,7 +5891,7 @@
       <c r="AB22" s="10">
         <v>1.4E-3</v>
       </c>
-      <c r="AC22" s="59">
+      <c r="AC22" s="50">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="AE22" s="10"/>
@@ -5984,7 +5983,7 @@
       <c r="AB23" s="10">
         <v>0.66</v>
       </c>
-      <c r="AC23" s="59">
+      <c r="AC23" s="50">
         <v>6.9E-6</v>
       </c>
       <c r="AE23" s="10"/>
@@ -6076,7 +6075,7 @@
       <c r="AB24" s="12">
         <v>0.62</v>
       </c>
-      <c r="AC24" s="59">
+      <c r="AC24" s="50">
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="AE24" s="12"/>
@@ -6168,7 +6167,7 @@
       <c r="AB25" s="10">
         <v>0.15</v>
       </c>
-      <c r="AC25" s="59">
+      <c r="AC25" s="50">
         <v>1.1E-5</v>
       </c>
       <c r="AE25" s="10"/>
@@ -6260,7 +6259,7 @@
       <c r="AB26" s="10">
         <v>0.95</v>
       </c>
-      <c r="AC26" s="59">
+      <c r="AC26" s="50">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="AE26" s="10"/>
@@ -6352,7 +6351,7 @@
       <c r="AB27" s="10">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="AC27" s="59">
+      <c r="AC27" s="50">
         <v>0.11</v>
       </c>
       <c r="AE27" s="10"/>
@@ -6444,7 +6443,7 @@
       <c r="AB28" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="AC28" s="59">
+      <c r="AC28" s="50">
         <v>0.78</v>
       </c>
       <c r="AE28" s="10"/>
@@ -6536,7 +6535,7 @@
       <c r="AB29" s="10">
         <v>0.1</v>
       </c>
-      <c r="AC29" s="59">
+      <c r="AC29" s="50">
         <v>0.13</v>
       </c>
       <c r="AE29" s="10"/>
@@ -6628,7 +6627,7 @@
       <c r="AB30" s="10">
         <v>1.6E-18</v>
       </c>
-      <c r="AC30" s="59">
+      <c r="AC30" s="50">
         <v>0.35</v>
       </c>
       <c r="AE30" s="10"/>
@@ -6720,7 +6719,7 @@
       <c r="AB31" s="10">
         <v>2.1E-7</v>
       </c>
-      <c r="AC31" s="59">
+      <c r="AC31" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="AE31" s="10"/>
@@ -6812,7 +6811,7 @@
       <c r="AB32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="59">
+      <c r="AC32" s="50">
         <v>0.46</v>
       </c>
       <c r="AE32" s="10"/>
@@ -6823,88 +6822,88 @@
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="50">
         <v>7.3000000000000005E-8</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="50">
         <v>7.3000000000000004E-6</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="50">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="50">
         <v>3.4000000000000001E-6</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="50">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="50">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="50">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="50">
         <v>1.8E-5</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="50">
         <v>0.64</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="50">
         <v>0.68</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="50">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M33" s="59">
+      <c r="M33" s="50">
         <v>1.2E-5</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="50">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O33" s="59">
+      <c r="O33" s="50">
         <v>8.3000000000000002E-6</v>
       </c>
-      <c r="P33" s="59">
+      <c r="P33" s="50">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="Q33" s="59">
+      <c r="Q33" s="50">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="R33" s="59">
+      <c r="R33" s="50">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="S33" s="59">
+      <c r="S33" s="50">
         <v>6.9E-6</v>
       </c>
-      <c r="T33" s="59">
+      <c r="T33" s="50">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="U33" s="59">
+      <c r="U33" s="50">
         <v>1.1E-5</v>
       </c>
-      <c r="V33" s="59">
+      <c r="V33" s="50">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="W33" s="59">
+      <c r="W33" s="50">
         <v>0.11</v>
       </c>
-      <c r="X33" s="59">
+      <c r="X33" s="50">
         <v>0.78</v>
       </c>
-      <c r="Y33" s="59">
+      <c r="Y33" s="50">
         <v>0.13</v>
       </c>
-      <c r="Z33" s="59">
+      <c r="Z33" s="50">
         <v>0.35</v>
       </c>
-      <c r="AA33" s="59">
+      <c r="AA33" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB33" s="59">
+      <c r="AB33" s="50">
         <v>0.46</v>
       </c>
-      <c r="AC33" s="24" t="s">
+      <c r="AC33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AE33" s="17"/>

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Spearman rank" sheetId="1" r:id="rId1"/>
@@ -267,13 +267,7 @@
     <t>O'Sullivan et al. 2011</t>
   </si>
   <si>
-    <t>0.457b</t>
-  </si>
-  <si>
     <t>Hlavacek-Larrando et al. 2012</t>
-  </si>
-  <si>
-    <t>0.696c</t>
   </si>
   <si>
     <t>Hoffer et al. 2012</t>
@@ -468,6 +462,12 @@
   </si>
   <si>
     <t>0.803gik</t>
+  </si>
+  <si>
+    <t>0.479b</t>
+  </si>
+  <si>
+    <t>0.703c</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,6 +744,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1046,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,66 +1070,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="A2" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="P2" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="14"/>
-      <c r="P3" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
+      <c r="P3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
       <c r="S3" s="31"/>
       <c r="T3" s="2"/>
     </row>
@@ -1171,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="34" t="s">
         <v>54</v>
@@ -1224,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="41">
         <v>-0.40699999999999997</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="41">
         <v>0.75900000000000001</v>
@@ -1260,7 +1266,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P6" s="41">
         <v>-1.7500000000000002E-2</v>
@@ -1301,10 +1307,9 @@
       <c r="AB6" s="41">
         <v>6.83E-2</v>
       </c>
-      <c r="AC6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD6" s="20"/>
+      <c r="AC6" s="52" t="s">
+        <v>128</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="20"/>
@@ -1314,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>4</v>
@@ -1323,13 +1328,13 @@
         <v>-0.42099999999999999</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="41">
         <v>0.31900000000000001</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7" s="41">
         <v>-0.11899999999999999</v>
@@ -1353,13 +1358,13 @@
         <v>-0.13200000000000001</v>
       </c>
       <c r="O7" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R7" s="41">
         <v>0.17599999999999999</v>
@@ -1368,7 +1373,7 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U7" s="41">
         <v>0.40100000000000002</v>
@@ -1394,10 +1399,9 @@
       <c r="AB7" s="41">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="AC7" s="41">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="AD7" s="20"/>
+      <c r="AC7" s="20">
+        <v>0.61399999999999999</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="20"/>
@@ -1487,10 +1491,9 @@
       <c r="AB8" s="41">
         <v>-8.09E-2</v>
       </c>
-      <c r="AC8" s="41">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="AD8" s="20"/>
+      <c r="AC8" s="20">
+        <v>-0.34399999999999997</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="20"/>
@@ -1500,10 +1503,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="41">
         <v>-0.29399999999999998</v>
@@ -1512,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="41">
         <v>0.36</v>
@@ -1536,7 +1539,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O9" s="36">
         <v>0.83599999999999997</v>
@@ -1580,10 +1583,9 @@
       <c r="AB9" s="41">
         <v>-8.7400000000000005E-2</v>
       </c>
-      <c r="AC9" s="41">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="AD9" s="20"/>
+      <c r="AC9" s="20">
+        <v>0.63100000000000001</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="20"/>
@@ -1593,7 +1595,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="41">
         <v>0.31900000000000001</v>
@@ -1602,7 +1604,7 @@
         <v>-0.38600000000000001</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>4</v>
@@ -1673,10 +1675,9 @@
       <c r="AB10" s="41">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="AC10" s="41">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="AD10" s="20"/>
+      <c r="AC10" s="20">
+        <v>0.54</v>
+      </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="20"/>
@@ -1689,7 +1690,7 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="41">
         <v>-0.23499999999999999</v>
@@ -1734,16 +1735,16 @@
         <v>-0.32</v>
       </c>
       <c r="R11" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>115</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="U11" s="37" t="s">
-        <v>117</v>
       </c>
       <c r="V11" s="41">
         <v>0.51600000000000001</v>
@@ -1766,10 +1767,9 @@
       <c r="AB11" s="41">
         <v>0.318</v>
       </c>
-      <c r="AC11" s="41">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="AD11" s="20"/>
+      <c r="AC11" s="20">
+        <v>0.60099999999999998</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="20"/>
@@ -1830,7 +1830,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T12" s="41">
         <v>0.64600000000000002</v>
@@ -1859,10 +1859,9 @@
       <c r="AB12" s="41">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AC12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD12" s="20"/>
+      <c r="AC12" s="52" t="s">
+        <v>127</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="20"/>
@@ -1914,10 +1913,10 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P13" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R13" s="41">
         <v>0.58199999999999996</v>
@@ -1952,10 +1951,9 @@
       <c r="AB13" s="41">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AC13" s="41">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="AD13" s="20"/>
+      <c r="AC13" s="20">
+        <v>0.59199999999999997</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="20"/>
@@ -2045,10 +2043,9 @@
       <c r="AB14" s="41">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="AC14" s="41">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="AD14" s="20"/>
+      <c r="AC14" s="20">
+        <v>-7.1900000000000006E-2</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="20"/>
@@ -2138,10 +2135,9 @@
       <c r="AB15" s="41">
         <v>-0.40600000000000003</v>
       </c>
-      <c r="AC15" s="41">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="AD15" s="20"/>
+      <c r="AC15" s="20">
+        <v>-6.2700000000000006E-2</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="20"/>
@@ -2231,10 +2227,9 @@
       <c r="AB16" s="41">
         <v>0.48299999999999998</v>
       </c>
-      <c r="AC16" s="41">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="AD16" s="20"/>
+      <c r="AC16" s="20">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="20"/>
@@ -2324,10 +2319,9 @@
       <c r="AB17" s="41">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AC17" s="41">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="AD17" s="20"/>
+      <c r="AC17" s="20">
+        <v>0.60299999999999998</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="20"/>
@@ -2346,7 +2340,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="41">
         <v>0.44500000000000001</v>
@@ -2376,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="O18" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P18" s="41">
         <v>-0.316</v>
@@ -2417,23 +2411,22 @@
       <c r="AB18" s="41">
         <v>0.33600000000000002</v>
       </c>
-      <c r="AC18" s="41">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="AD18" s="20"/>
+      <c r="AC18" s="20">
+        <v>0.52700000000000002</v>
+      </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="20"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="41">
         <v>-0.33900000000000002</v>
@@ -2466,7 +2459,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O19" s="43" t="s">
         <v>4</v>
@@ -2510,23 +2503,22 @@
       <c r="AB19" s="41">
         <v>-0.192</v>
       </c>
-      <c r="AC19" s="41">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="AD19" s="20"/>
+      <c r="AC19" s="20">
+        <v>0.61099999999999999</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="20"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="41">
         <v>-1.7500000000000002E-2</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="41">
         <v>-0.11</v>
@@ -2544,7 +2536,7 @@
         <v>-0.44800000000000001</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J20" s="41">
         <v>0.92900000000000005</v>
@@ -2603,10 +2595,9 @@
       <c r="AB20" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AC20" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="AD20" s="20"/>
+      <c r="AC20" s="20">
+        <v>-0.438</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="20"/>
@@ -2619,7 +2610,7 @@
         <v>-1.7500000000000002E-2</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="41">
         <v>-0.11</v>
@@ -2637,7 +2628,7 @@
         <v>-0.44800000000000001</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J21" s="41">
         <v>0.92900000000000005</v>
@@ -2696,10 +2687,9 @@
       <c r="AB21" s="41">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AC21" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="AD21" s="20"/>
+      <c r="AC21" s="20">
+        <v>-0.438</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="20"/>
@@ -2724,7 +2714,7 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="41">
         <v>0.71799999999999997</v>
@@ -2760,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="S22" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T22" s="28">
         <v>0.90300000000000002</v>
@@ -2789,10 +2779,9 @@
       <c r="AB22" s="41">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AC22" s="41">
+      <c r="AC22" s="20">
         <v>0.68100000000000005</v>
       </c>
-      <c r="AD22" s="20"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="20"/>
@@ -2817,10 +2806,10 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" s="41">
         <v>0.54100000000000004</v>
@@ -2850,7 +2839,7 @@
         <v>-0.28499999999999998</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S23" s="43" t="s">
         <v>4</v>
@@ -2882,10 +2871,9 @@
       <c r="AB23" s="41">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="AC23" s="40">
+      <c r="AC23" s="53">
         <v>0.74</v>
       </c>
-      <c r="AD23" s="20"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="20"/>
@@ -2898,7 +2886,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="41">
         <v>-0.39300000000000002</v>
@@ -2910,7 +2898,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" s="41">
         <v>0.64600000000000002</v>
@@ -2952,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V24" s="47">
         <v>0.53600000000000003</v>
@@ -2975,10 +2963,9 @@
       <c r="AB24" s="47">
         <v>0.12</v>
       </c>
-      <c r="AC24" s="41">
+      <c r="AC24" s="21">
         <v>0.76800000000000002</v>
       </c>
-      <c r="AD24" s="21"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="20"/>
@@ -3003,7 +2990,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H25" s="41">
         <v>0.58599999999999997</v>
@@ -3042,7 +3029,7 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U25" s="43" t="s">
         <v>4</v>
@@ -3068,10 +3055,9 @@
       <c r="AB25" s="41">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AC25" s="41">
+      <c r="AC25" s="20">
         <v>0.72899999999999998</v>
       </c>
-      <c r="AD25" s="20"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="20"/>
@@ -3161,10 +3147,9 @@
       <c r="AB26" s="41">
         <v>-1.2E-2</v>
       </c>
-      <c r="AC26" s="40">
+      <c r="AC26" s="53">
         <v>0.71099999999999997</v>
       </c>
-      <c r="AD26" s="20"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="20"/>
@@ -3254,10 +3239,9 @@
       <c r="AB27" s="33">
         <v>-0.54400000000000004</v>
       </c>
-      <c r="AC27" s="41">
+      <c r="AC27" s="20">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="AD27" s="20"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="20"/>
@@ -3347,10 +3331,9 @@
       <c r="AB28" s="33">
         <v>-0.36399999999999999</v>
       </c>
-      <c r="AC28" s="41">
+      <c r="AC28" s="20">
         <v>-5.5199999999999999E-2</v>
       </c>
-      <c r="AD28" s="20"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="20"/>
@@ -3435,15 +3418,14 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AA29" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AB29" s="33">
         <v>0.26400000000000001</v>
       </c>
-      <c r="AC29" s="41">
+      <c r="AC29" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD29" s="20"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="20"/>
@@ -3528,15 +3510,14 @@
         <v>4</v>
       </c>
       <c r="AA30" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AB30" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC30" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="AD30" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="AC30" s="20">
+        <v>0.24</v>
+      </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="20"/>
@@ -3615,21 +3596,20 @@
         <v>-0.57699999999999996</v>
       </c>
       <c r="Y31" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z31" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA31" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AB31" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC31" s="41">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="AD31" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="AC31" s="20">
+        <v>0.154</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="20"/>
@@ -3711,18 +3691,17 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="Z32" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA32" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="41">
-        <v>0.157</v>
-      </c>
-      <c r="AD32" s="20"/>
+      <c r="AC32" s="20">
+        <v>0.193</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="20"/>
@@ -3731,91 +3710,90 @@
       <c r="A33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="41">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="D33" s="41">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F33" s="41">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="G33" s="41">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="41">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="J33" s="41">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="K33" s="41">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="L33" s="41">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="M33" s="41">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="N33" s="41">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O33" s="41">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="P33" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="Q33" s="41">
-        <v>-0.41899999999999998</v>
-      </c>
-      <c r="R33" s="41">
+      <c r="B33" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D33" s="20">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="J33" s="20">
+        <v>-7.1900000000000006E-2</v>
+      </c>
+      <c r="K33" s="20">
+        <v>-6.2700000000000006E-2</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="N33" s="20">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="O33" s="20">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="P33" s="20">
+        <v>-0.438</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>-0.438</v>
+      </c>
+      <c r="R33" s="20">
         <v>0.68100000000000005</v>
       </c>
-      <c r="S33" s="40">
+      <c r="S33" s="53">
         <v>0.74</v>
       </c>
-      <c r="T33" s="41">
+      <c r="T33" s="21">
         <v>0.76800000000000002</v>
       </c>
-      <c r="U33" s="41">
+      <c r="U33" s="20">
         <v>0.72899999999999998</v>
       </c>
-      <c r="V33" s="40">
+      <c r="V33" s="53">
         <v>0.71099999999999997</v>
       </c>
-      <c r="W33" s="41">
+      <c r="W33" s="20">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="X33" s="41">
+      <c r="X33" s="20">
         <v>-5.5199999999999999E-2</v>
       </c>
-      <c r="Y33" s="41">
+      <c r="Y33" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z33" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="AA33" s="41">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="AB33" s="41">
-        <v>0.157</v>
-      </c>
-      <c r="AC33" s="43" t="s">
+      <c r="Z33" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="AA33" s="20">
+        <v>0.154</v>
+      </c>
+      <c r="AB33" s="20">
+        <v>0.193</v>
+      </c>
+      <c r="AC33" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AD33" s="20"/>
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
@@ -3932,11 +3910,11 @@
       <c r="A37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="20"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -3971,11 +3949,11 @@
       <c r="A38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="16"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -3996,11 +3974,11 @@
       <c r="A39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="16"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -4021,11 +3999,11 @@
       <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4046,97 +4024,97 @@
       <c r="A41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+        <v>74</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+        <v>76</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+        <v>77</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+        <v>78</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+        <v>79</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+        <v>80</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+        <v>109</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -4223,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4241,17 +4219,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="57"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4262,10 +4240,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -4311,10 +4289,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="35" t="s">
         <v>54</v>
@@ -4441,10 +4419,9 @@
       <c r="AB6" s="10">
         <v>0.49</v>
       </c>
-      <c r="AC6" s="10">
-        <v>1.6E-7</v>
-      </c>
-      <c r="AD6" s="17"/>
+      <c r="AC6" s="50">
+        <v>7.3000000000000005E-8</v>
+      </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="17"/>
@@ -4534,10 +4511,9 @@
       <c r="AB7" s="10">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="AC7" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AD7" s="17"/>
+      <c r="AC7" s="50">
+        <v>7.3000000000000004E-6</v>
+      </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="17"/>
@@ -4627,10 +4603,9 @@
       <c r="AB8" s="10">
         <v>0.41</v>
       </c>
-      <c r="AC8" s="17">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="AD8" s="17"/>
+      <c r="AC8" s="50">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="17"/>
@@ -4720,10 +4695,9 @@
       <c r="AB9" s="10">
         <v>0.38</v>
       </c>
-      <c r="AC9" s="10">
-        <v>2.7999999999999999E-6</v>
-      </c>
-      <c r="AD9" s="17"/>
+      <c r="AC9" s="50">
+        <v>3.4000000000000001E-6</v>
+      </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="17"/>
@@ -4813,10 +4787,9 @@
       <c r="AB10" s="10">
         <v>0.73</v>
       </c>
-      <c r="AC10" s="10">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="AD10" s="17"/>
+      <c r="AC10" s="50">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="17"/>
@@ -4906,10 +4879,9 @@
       <c r="AB11" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="AC11" s="17">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="AD11" s="17"/>
+      <c r="AC11" s="50">
+        <v>7.2999999999999996E-4</v>
+      </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="17"/>
@@ -4999,10 +4971,9 @@
       <c r="AB12" s="10">
         <v>2.9E-4</v>
       </c>
-      <c r="AC12" s="10">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AD12" s="17"/>
+      <c r="AC12" s="50">
+        <v>8.8000000000000003E-4</v>
+      </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="17"/>
@@ -5092,10 +5063,9 @@
       <c r="AB13" s="10">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="AC13" s="10">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="AD13" s="17"/>
+      <c r="AC13" s="50">
+        <v>1.8E-5</v>
+      </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="17"/>
@@ -5185,10 +5155,9 @@
       <c r="AB14" s="10">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="AC14" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="AD14" s="17"/>
+      <c r="AC14" s="50">
+        <v>0.64</v>
+      </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="17"/>
@@ -5278,10 +5247,9 @@
       <c r="AB15" s="10">
         <v>1.8E-5</v>
       </c>
-      <c r="AC15" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="AD15" s="17"/>
+      <c r="AC15" s="50">
+        <v>0.68</v>
+      </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="17"/>
@@ -5371,10 +5339,9 @@
       <c r="AB16" s="10">
         <v>1.8E-7</v>
       </c>
-      <c r="AC16" s="10">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="AD16" s="17"/>
+      <c r="AC16" s="50">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="17"/>
@@ -5464,10 +5431,9 @@
       <c r="AB17" s="10">
         <v>2.6E-7</v>
       </c>
-      <c r="AC17" s="10">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="AD17" s="17"/>
+      <c r="AC17" s="50">
+        <v>1.2E-5</v>
+      </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="17"/>
@@ -5557,17 +5523,16 @@
       <c r="AB18" s="10">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="AC18" s="10">
-        <v>4.6000000000000001E-4</v>
-      </c>
-      <c r="AD18" s="17"/>
+      <c r="AC18" s="50">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10">
         <v>3.7000000000000002E-28</v>
@@ -5650,17 +5615,16 @@
       <c r="AB19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC19" s="10">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AD19" s="17"/>
+      <c r="AC19" s="50">
+        <v>8.3000000000000002E-6</v>
+      </c>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="48">
         <v>0.79</v>
@@ -5743,10 +5707,9 @@
       <c r="AB20" s="48">
         <v>8.1999999999999998E-7</v>
       </c>
-      <c r="AC20" s="48">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="AD20" s="17"/>
+      <c r="AC20" s="50">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="17"/>
@@ -5837,9 +5800,8 @@
         <v>8.1999999999999998E-7</v>
       </c>
       <c r="AC21" s="50">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="AD21" s="17"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="17"/>
@@ -5929,10 +5891,9 @@
       <c r="AB22" s="10">
         <v>1.4E-3</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="50">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="AD22" s="17"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="17"/>
@@ -6022,10 +5983,9 @@
       <c r="AB23" s="10">
         <v>0.66</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="50">
         <v>6.9E-6</v>
       </c>
-      <c r="AD23" s="17"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="17"/>
@@ -6115,10 +6075,9 @@
       <c r="AB24" s="12">
         <v>0.62</v>
       </c>
-      <c r="AC24" s="10">
+      <c r="AC24" s="50">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="AD24" s="18"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="17"/>
@@ -6208,10 +6167,9 @@
       <c r="AB25" s="10">
         <v>0.15</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="50">
         <v>1.1E-5</v>
       </c>
-      <c r="AD25" s="17"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="17"/>
@@ -6301,10 +6259,9 @@
       <c r="AB26" s="10">
         <v>0.95</v>
       </c>
-      <c r="AC26" s="10">
+      <c r="AC26" s="50">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="AD26" s="17"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="17"/>
@@ -6394,10 +6351,9 @@
       <c r="AB27" s="10">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="AC27" s="10">
+      <c r="AC27" s="50">
         <v>0.11</v>
       </c>
-      <c r="AD27" s="17"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="17"/>
@@ -6487,10 +6443,9 @@
       <c r="AB28" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AC28" s="50">
         <v>0.78</v>
       </c>
-      <c r="AD28" s="17"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="17"/>
@@ -6580,10 +6535,9 @@
       <c r="AB29" s="10">
         <v>0.1</v>
       </c>
-      <c r="AC29" s="10">
+      <c r="AC29" s="50">
         <v>0.13</v>
       </c>
-      <c r="AD29" s="17"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="17"/>
@@ -6673,10 +6627,9 @@
       <c r="AB30" s="10">
         <v>1.6E-18</v>
       </c>
-      <c r="AC30" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="AD30" s="17"/>
+      <c r="AC30" s="50">
+        <v>0.35</v>
+      </c>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="17"/>
@@ -6766,10 +6719,9 @@
       <c r="AB31" s="10">
         <v>2.1E-7</v>
       </c>
-      <c r="AC31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD31" s="17"/>
+      <c r="AC31" s="50">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="17"/>
@@ -6859,10 +6811,9 @@
       <c r="AB32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AD32" s="17"/>
+      <c r="AC32" s="50">
+        <v>0.46</v>
+      </c>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="17"/>
@@ -6871,91 +6822,90 @@
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="10">
-        <v>1.6E-7</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="50">
+        <v>7.3000000000000005E-8</v>
+      </c>
+      <c r="C33" s="50">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="D33" s="50">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E33" s="50">
+        <v>3.4000000000000001E-6</v>
+      </c>
+      <c r="F33" s="50">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G33" s="50">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="H33" s="50">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="I33" s="50">
+        <v>1.8E-5</v>
+      </c>
+      <c r="J33" s="50">
+        <v>0.64</v>
+      </c>
+      <c r="K33" s="50">
+        <v>0.68</v>
+      </c>
+      <c r="L33" s="50">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D33" s="17">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2.7999999999999999E-6</v>
-      </c>
-      <c r="F33" s="10">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I33" s="10">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="L33" s="10">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="M33" s="10">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="N33" s="10">
-        <v>4.6000000000000001E-4</v>
-      </c>
-      <c r="O33" s="10">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="P33" s="48">
-        <v>4.5999999999999999E-3</v>
+      <c r="M33" s="50">
+        <v>1.2E-5</v>
+      </c>
+      <c r="N33" s="50">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O33" s="50">
+        <v>8.3000000000000002E-6</v>
+      </c>
+      <c r="P33" s="50">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="Q33" s="50">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="R33" s="10">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="R33" s="50">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="50">
         <v>6.9E-6</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="50">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="50">
         <v>1.1E-5</v>
       </c>
-      <c r="V33" s="10">
+      <c r="V33" s="50">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="W33" s="10">
+      <c r="W33" s="50">
         <v>0.11</v>
       </c>
-      <c r="X33" s="10">
+      <c r="X33" s="50">
         <v>0.78</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="50">
         <v>0.13</v>
       </c>
-      <c r="Z33" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="AA33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AB33" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AC33" s="8" t="s">
+      <c r="Z33" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="AA33" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB33" s="50">
+        <v>0.46</v>
+      </c>
+      <c r="AC33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
@@ -7176,10 +7126,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>54</v>
@@ -7397,7 +7347,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O19" s="24"/>
       <c r="AD19" s="20"/>
@@ -7407,7 +7357,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="24"/>
       <c r="AD20" s="20"/>
@@ -8022,10 +7972,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>54</v>
@@ -8642,7 +8592,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -8687,7 +8637,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -9753,7 +9703,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9761,7 +9711,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9769,7 +9719,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9777,7 +9727,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9785,7 +9735,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9793,7 +9743,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9801,7 +9751,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9809,7 +9759,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9817,7 +9767,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9825,23 +9775,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9849,7 +9799,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
